--- a/IC files/results/longDTA/statistics_longDTA.xlsx
+++ b/IC files/results/longDTA/statistics_longDTA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="362">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -977,6 +977,9 @@
     <t xml:space="preserve">CCW1_Total_FrequencyRepetitiveBehavior</t>
   </si>
   <si>
+    <t xml:space="preserve">CCW1_Total_PlaceErrorNonAdjusted</t>
+  </si>
+  <si>
     <t xml:space="preserve">CCW1_Total_PlaceErrorAdjusted</t>
   </si>
   <si>
@@ -1044,6 +1047,9 @@
   </si>
   <si>
     <t xml:space="preserve">CCW2_Total_FrequencyRepetitiveBehavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCW2_Total_PlaceErrorNonAdjusted</t>
   </si>
   <si>
     <t xml:space="preserve">CCW2_Total_PlaceErrorAdjusted</t>
@@ -1588,7 +1594,7 @@
         <v>0.247492634890505</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.50784243777095</v>
+        <v>-0.507842437770951</v>
       </c>
     </row>
     <row r="4">
@@ -1620,7 +1626,7 @@
         <v>0.125615112108337</v>
       </c>
       <c r="J4" t="n">
-        <v>0.677588155281332</v>
+        <v>0.677588155281333</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
@@ -1788,7 +1794,7 @@
         <v>0.0182553385798268</v>
       </c>
       <c r="J7" t="n">
-        <v>0.606982154183346</v>
+        <v>0.606982154183345</v>
       </c>
       <c r="K7" t="s">
         <v>23</v>
@@ -1809,7 +1815,7 @@
         <v>-0.453125</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.0821610180598501</v>
+        <v>-0.0821610180598502</v>
       </c>
       <c r="R7" t="n">
         <v>-0.713807856318692</v>
@@ -2092,7 +2098,7 @@
         <v>0.185849839007322</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.554269401802204</v>
+        <v>-0.554269401802203</v>
       </c>
     </row>
     <row r="13">
@@ -2348,7 +2354,7 @@
         <v>0.0255970319616106</v>
       </c>
       <c r="J17" t="n">
-        <v>0.00688860073475864</v>
+        <v>0.00688860073475865</v>
       </c>
       <c r="K17" t="s">
         <v>40</v>
@@ -2425,10 +2431,10 @@
         <v>1.7969331997515</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.6497985246877</v>
+        <v>2.64979852468764</v>
       </c>
       <c r="R18" t="n">
-        <v>0.918936007514987</v>
+        <v>0.918936007515008</v>
       </c>
     </row>
     <row r="19">
@@ -2740,7 +2746,7 @@
         <v>0.0255970319616106</v>
       </c>
       <c r="J24" t="n">
-        <v>0.00688860073475864</v>
+        <v>0.00688860073475865</v>
       </c>
       <c r="K24" t="s">
         <v>40</v>
@@ -2852,7 +2858,7 @@
         <v>0.70268308968305</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0777438863761837</v>
+        <v>0.0777438863761835</v>
       </c>
       <c r="K26" t="s">
         <v>19</v>
@@ -2876,7 +2882,7 @@
         <v>1.78425861931695</v>
       </c>
       <c r="R26" t="n">
-        <v>0.278182801347763</v>
+        <v>0.278182801347762</v>
       </c>
     </row>
     <row r="27">
@@ -3044,7 +3050,7 @@
         <v>1.71461246896363</v>
       </c>
       <c r="R29" t="n">
-        <v>0.219876142507027</v>
+        <v>0.219876142507024</v>
       </c>
     </row>
     <row r="30">
@@ -3076,7 +3082,7 @@
         <v>0.913089352503327</v>
       </c>
       <c r="J30" t="n">
-        <v>0.000686113192679119</v>
+        <v>0.000686113192679117</v>
       </c>
       <c r="K30" t="s">
         <v>42</v>
@@ -3132,13 +3138,13 @@
         <v>0.736295846161249</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0125543016771232</v>
+        <v>0.0125543016771231</v>
       </c>
       <c r="K31" t="s">
         <v>42</v>
       </c>
       <c r="L31" t="n">
-        <v>0.382215367031548</v>
+        <v>0.382215367031547</v>
       </c>
       <c r="M31" t="s">
         <v>20</v>
@@ -3188,13 +3194,13 @@
         <v>0.736295846161249</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0125543016771232</v>
+        <v>0.0125543016771231</v>
       </c>
       <c r="K32" t="s">
         <v>42</v>
       </c>
       <c r="L32" t="n">
-        <v>0.382215367031548</v>
+        <v>0.382215367031547</v>
       </c>
       <c r="M32" t="s">
         <v>20</v>
@@ -3300,7 +3306,7 @@
         <v>0.90556289729165</v>
       </c>
       <c r="J34" t="n">
-        <v>0.00026988424055719</v>
+        <v>0.000269884240557192</v>
       </c>
       <c r="K34" t="s">
         <v>42</v>
@@ -3321,10 +3327,10 @@
         <v>0.529754090335038</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.26207733711467</v>
+        <v>1.26207733711468</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.219502407376913</v>
+        <v>-0.219502407376912</v>
       </c>
     </row>
     <row r="35">
@@ -3403,7 +3409,7 @@
         <v>359.933333333333</v>
       </c>
       <c r="G36" t="n">
-        <v>70.454105291182</v>
+        <v>70.4541052911819</v>
       </c>
       <c r="H36" t="n">
         <v>0.108464005427297</v>
@@ -3636,7 +3642,7 @@
         <v>0.542535148536097</v>
       </c>
       <c r="J40" t="n">
-        <v>0.00970185922327311</v>
+        <v>0.00970185922327312</v>
       </c>
       <c r="K40" t="s">
         <v>42</v>
@@ -3692,7 +3698,7 @@
         <v>0.90556289729165</v>
       </c>
       <c r="J41" t="n">
-        <v>0.00026988424055719</v>
+        <v>0.000269884240557192</v>
       </c>
       <c r="K41" t="s">
         <v>42</v>
@@ -3713,10 +3719,10 @@
         <v>0.529754090335038</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.26207733711467</v>
+        <v>1.26207733711468</v>
       </c>
       <c r="R41" t="n">
-        <v>-0.219502407376913</v>
+        <v>-0.219502407376912</v>
       </c>
     </row>
     <row r="42">
@@ -3748,7 +3754,7 @@
         <v>0.550356942534514</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0762326057551131</v>
+        <v>0.0762326057551132</v>
       </c>
       <c r="K42" t="s">
         <v>23</v>
@@ -3789,7 +3795,7 @@
         <v>677.2</v>
       </c>
       <c r="E43" t="n">
-        <v>317.387595400775</v>
+        <v>317.387595400774</v>
       </c>
       <c r="F43" t="n">
         <v>345.4</v>
@@ -3828,7 +3834,7 @@
         <v>2.30336301567808</v>
       </c>
       <c r="R43" t="n">
-        <v>0.55123334489181</v>
+        <v>0.551233344891811</v>
       </c>
     </row>
     <row r="44">
@@ -3881,7 +3887,7 @@
         <v>-0.0991908795439765</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.617834291401449</v>
+        <v>0.617834291401445</v>
       </c>
       <c r="R44" t="n">
         <v>-0.814455173257074</v>
@@ -3972,7 +3978,7 @@
         <v>0.762656789098885</v>
       </c>
       <c r="J46" t="n">
-        <v>0.217382535087878</v>
+        <v>0.217382535087879</v>
       </c>
       <c r="K46" t="s">
         <v>19</v>
@@ -3996,7 +4002,7 @@
         <v>1.80602546669392</v>
       </c>
       <c r="R46" t="n">
-        <v>0.273882936758829</v>
+        <v>0.273882936758828</v>
       </c>
     </row>
     <row r="47">
@@ -4028,7 +4034,7 @@
         <v>0.913089352503327</v>
       </c>
       <c r="J47" t="n">
-        <v>0.00462938589303369</v>
+        <v>0.0046293858930337</v>
       </c>
       <c r="K47" t="s">
         <v>42</v>
@@ -4084,7 +4090,7 @@
         <v>0.489751742647194</v>
       </c>
       <c r="J48" t="n">
-        <v>0.000219274783812966</v>
+        <v>0.000219274783812967</v>
       </c>
       <c r="K48" t="s">
         <v>42</v>
@@ -4140,7 +4146,7 @@
         <v>0.916105791326754</v>
       </c>
       <c r="J49" t="n">
-        <v>0.008877749877386</v>
+        <v>0.00887774987738599</v>
       </c>
       <c r="K49" t="s">
         <v>42</v>
@@ -4252,7 +4258,7 @@
         <v>0.227026843098627</v>
       </c>
       <c r="J51" t="n">
-        <v>0.000523029294550254</v>
+        <v>0.000523029294550252</v>
       </c>
       <c r="K51" t="s">
         <v>42</v>
@@ -4270,10 +4276,10 @@
         <v>21</v>
       </c>
       <c r="P51" t="n">
-        <v>-0.353624514996397</v>
+        <v>-0.353624514996396</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.376846597795393</v>
+        <v>0.376846597795392</v>
       </c>
       <c r="R51" t="n">
         <v>-1.0739692732275</v>
@@ -4296,7 +4302,7 @@
         <v>0.10905648166112</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6406532443537</v>
+        <v>0.640653244353701</v>
       </c>
       <c r="G52" t="n">
         <v>0.0350907646811342</v>
@@ -4308,19 +4314,19 @@
         <v>0.227026843098624</v>
       </c>
       <c r="J52" t="n">
-        <v>0.000523029294550252</v>
+        <v>0.000523029294550254</v>
       </c>
       <c r="K52" t="s">
         <v>42</v>
       </c>
       <c r="L52" t="n">
-        <v>0.346506080798127</v>
+        <v>0.346506080798128</v>
       </c>
       <c r="M52" t="s">
         <v>20</v>
       </c>
       <c r="N52" t="n">
-        <v>0.96844061875175</v>
+        <v>0.968440618751749</v>
       </c>
       <c r="O52" t="s">
         <v>21</v>
@@ -4329,10 +4335,10 @@
         <v>0.353624514996396</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.07396930495442</v>
+        <v>1.07396930495441</v>
       </c>
       <c r="R52" t="n">
-        <v>-0.376846572622204</v>
+        <v>-0.376846572622208</v>
       </c>
     </row>
     <row r="53">
@@ -4385,10 +4391,10 @@
         <v>0.624097662365647</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.3643394537408</v>
+        <v>1.36433945374079</v>
       </c>
       <c r="R53" t="n">
-        <v>-0.135354863263283</v>
+        <v>-0.135354863263284</v>
       </c>
     </row>
     <row r="54">
@@ -4420,7 +4426,7 @@
         <v>0.001850328793694</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0229021980812724</v>
+        <v>0.0229021980812725</v>
       </c>
       <c r="K54" t="s">
         <v>40</v>
@@ -4482,13 +4488,13 @@
         <v>42</v>
       </c>
       <c r="L55" t="n">
-        <v>0.00145182368361981</v>
+        <v>0.00145182368361982</v>
       </c>
       <c r="M55" t="s">
         <v>20</v>
       </c>
       <c r="N55" t="n">
-        <v>3.79745118149771</v>
+        <v>3.7974511814977</v>
       </c>
       <c r="O55" t="s">
         <v>21</v>
@@ -4700,7 +4706,7 @@
         <v>0.542535148536097</v>
       </c>
       <c r="J59" t="n">
-        <v>0.00970185922327311</v>
+        <v>0.00970185922327312</v>
       </c>
       <c r="K59" t="s">
         <v>42</v>
@@ -4777,10 +4783,10 @@
         <v>0.624097662365647</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.3643394537408</v>
+        <v>1.36433945374079</v>
       </c>
       <c r="R60" t="n">
-        <v>-0.135354863263283</v>
+        <v>-0.135354863263284</v>
       </c>
     </row>
     <row r="61">
@@ -4859,7 +4865,7 @@
         <v>203.533333333333</v>
       </c>
       <c r="G62" t="n">
-        <v>51.5070961361729</v>
+        <v>51.5070961361728</v>
       </c>
       <c r="H62" t="n">
         <v>0.284841968290191</v>
@@ -4868,13 +4874,13 @@
         <v>0.247095857767749</v>
       </c>
       <c r="J62" t="n">
-        <v>0.00380830410242141</v>
+        <v>0.00380830410242142</v>
       </c>
       <c r="K62" t="s">
         <v>42</v>
       </c>
       <c r="L62" t="n">
-        <v>0.00147250463254386</v>
+        <v>0.00147250463254385</v>
       </c>
       <c r="M62" t="s">
         <v>20</v>
@@ -4892,7 +4898,7 @@
         <v>2.21895194080314</v>
       </c>
       <c r="R62" t="n">
-        <v>0.516842481286959</v>
+        <v>0.516842481286964</v>
       </c>
     </row>
     <row r="63">
@@ -4980,7 +4986,7 @@
         <v>0.230028922234463</v>
       </c>
       <c r="J64" t="n">
-        <v>0.0165690461158145</v>
+        <v>0.0165690461158144</v>
       </c>
       <c r="K64" t="s">
         <v>40</v>
@@ -5036,7 +5042,7 @@
         <v>0.762656789098885</v>
       </c>
       <c r="J65" t="n">
-        <v>0.217382535087878</v>
+        <v>0.217382535087879</v>
       </c>
       <c r="K65" t="s">
         <v>19</v>
@@ -5060,7 +5066,7 @@
         <v>1.80602546669392</v>
       </c>
       <c r="R65" t="n">
-        <v>0.273882936758829</v>
+        <v>0.273882936758828</v>
       </c>
     </row>
     <row r="66">
@@ -5092,7 +5098,7 @@
         <v>0.913089352503327</v>
       </c>
       <c r="J66" t="n">
-        <v>0.00462938589303369</v>
+        <v>0.0046293858930337</v>
       </c>
       <c r="K66" t="s">
         <v>42</v>
@@ -5148,7 +5154,7 @@
         <v>0.737270837462299</v>
       </c>
       <c r="J67" t="n">
-        <v>0.972773590189287</v>
+        <v>0.972773590189286</v>
       </c>
       <c r="K67" t="s">
         <v>23</v>
@@ -5337,7 +5343,7 @@
         <v>-0.663199226096718</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.0786485850381531</v>
+        <v>0.0786485850381535</v>
       </c>
       <c r="R70" t="n">
         <v>-1.39388917445815</v>
@@ -5449,10 +5455,10 @@
         <v>0.0261008433449606</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.741509101893025</v>
+        <v>0.741509101892955</v>
       </c>
       <c r="R72" t="n">
-        <v>-0.689932466628646</v>
+        <v>-0.689932466628643</v>
       </c>
     </row>
     <row r="73">
@@ -5673,7 +5679,7 @@
         <v>0.239665986669661</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.9559519333073</v>
+        <v>0.955951933307309</v>
       </c>
       <c r="R76" t="n">
         <v>-0.480848872464466</v>
@@ -5764,7 +5770,7 @@
         <v>0.130335892371326</v>
       </c>
       <c r="J78" t="n">
-        <v>0.968695454329914</v>
+        <v>0.968695454329913</v>
       </c>
       <c r="K78" t="s">
         <v>19</v>
@@ -6050,7 +6056,7 @@
         <v>40</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0012045042082606</v>
+        <v>0.00120450420826061</v>
       </c>
       <c r="M83" t="s">
         <v>24</v>
@@ -6068,7 +6074,7 @@
         <v>-0.416069839381834</v>
       </c>
       <c r="R83" t="n">
-        <v>-0.857277738654345</v>
+        <v>-0.857277738654346</v>
       </c>
     </row>
     <row r="84">
@@ -6100,7 +6106,7 @@
         <v>0.54356233775378</v>
       </c>
       <c r="J84" t="n">
-        <v>0.252961326396617</v>
+        <v>0.252961326396616</v>
       </c>
       <c r="K84" t="s">
         <v>23</v>
@@ -6224,7 +6230,7 @@
         <v>20</v>
       </c>
       <c r="N86" t="n">
-        <v>0.515029415183376</v>
+        <v>0.515029415183375</v>
       </c>
       <c r="O86" t="s">
         <v>21</v>
@@ -6324,7 +6330,7 @@
         <v>0.0669837717032031</v>
       </c>
       <c r="J88" t="n">
-        <v>0.394251829958464</v>
+        <v>0.394251829958463</v>
       </c>
       <c r="K88" t="s">
         <v>23</v>
@@ -6345,7 +6351,7 @@
         <v>-0.373333333333333</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.0277290447513089</v>
+        <v>0.0277290447513088</v>
       </c>
       <c r="R88" t="n">
         <v>-0.670866745663586</v>
@@ -6625,7 +6631,7 @@
         <v>-0.427957008860413</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.300081800508535</v>
+        <v>0.300081800508536</v>
       </c>
       <c r="R93" t="n">
         <v>-1.14856420220999</v>
@@ -6716,7 +6722,7 @@
         <v>0.0246434440116188</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0583305021655104</v>
+        <v>0.0583305021655106</v>
       </c>
       <c r="K95" t="s">
         <v>23</v>
@@ -6908,7 +6914,7 @@
         <v>-0.147406806072574</v>
       </c>
       <c r="R98" t="n">
-        <v>-0.778320286716052</v>
+        <v>-0.778320286716051</v>
       </c>
     </row>
     <row r="99">
@@ -7052,7 +7058,7 @@
         <v>0.140523361101086</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0339044607211065</v>
+        <v>0.0339044607211064</v>
       </c>
       <c r="K101" t="s">
         <v>42</v>
@@ -7108,7 +7114,7 @@
         <v>0.0246434440116188</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0583305021655104</v>
+        <v>0.0583305021655106</v>
       </c>
       <c r="K102" t="s">
         <v>23</v>
@@ -7155,7 +7161,7 @@
         <v>211.2</v>
       </c>
       <c r="G103" t="n">
-        <v>51.9315483524775</v>
+        <v>51.9315483524776</v>
       </c>
       <c r="H103" t="n">
         <v>0.40773578436278</v>
@@ -7270,7 +7276,7 @@
         <v>28.9429652609272</v>
       </c>
       <c r="H105" t="n">
-        <v>0.043312403346361</v>
+        <v>0.0433124033463611</v>
       </c>
       <c r="I105" t="n">
         <v>0.0000872661169028596</v>
@@ -7506,7 +7512,7 @@
         <v>19</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0812436800448973</v>
+        <v>0.0812436800448974</v>
       </c>
       <c r="M109" t="s">
         <v>20</v>
@@ -7524,7 +7530,7 @@
         <v>1.48059293993391</v>
       </c>
       <c r="R109" t="n">
-        <v>-0.0864087879223632</v>
+        <v>-0.0864087879223669</v>
       </c>
     </row>
     <row r="110">
@@ -7612,7 +7618,7 @@
         <v>0.0246434440116188</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0583305021655104</v>
+        <v>0.0583305021655106</v>
       </c>
       <c r="K111" t="s">
         <v>23</v>
@@ -7668,7 +7674,7 @@
         <v>0.0284688216482851</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0662985396362302</v>
+        <v>0.0662985396362303</v>
       </c>
       <c r="K112" t="s">
         <v>23</v>
@@ -7948,7 +7954,7 @@
         <v>0.0260128566206519</v>
       </c>
       <c r="J117" t="n">
-        <v>0.313842292682574</v>
+        <v>0.313842292682575</v>
       </c>
       <c r="K117" t="s">
         <v>23</v>
@@ -8004,7 +8010,7 @@
         <v>0.0246434440116188</v>
       </c>
       <c r="J118" t="n">
-        <v>0.0583305021655104</v>
+        <v>0.0583305021655106</v>
       </c>
       <c r="K118" t="s">
         <v>23</v>
@@ -8060,7 +8066,7 @@
         <v>0.0284688216482851</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0662985396362302</v>
+        <v>0.0662985396362303</v>
       </c>
       <c r="K119" t="s">
         <v>23</v>
@@ -8340,7 +8346,7 @@
         <v>0.0260128566206519</v>
       </c>
       <c r="J124" t="n">
-        <v>0.313842292682574</v>
+        <v>0.313842292682575</v>
       </c>
       <c r="K124" t="s">
         <v>23</v>
@@ -8417,10 +8423,10 @@
         <v>0.0665413217183943</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.825192369165289</v>
+        <v>0.825192369165292</v>
       </c>
       <c r="R125" t="n">
-        <v>-0.693432795113034</v>
+        <v>-0.693432795113032</v>
       </c>
     </row>
     <row r="126">
@@ -8520,7 +8526,7 @@
         <v>20</v>
       </c>
       <c r="N127" t="n">
-        <v>-0.337001541798799</v>
+        <v>-0.337001541798798</v>
       </c>
       <c r="O127" t="s">
         <v>21</v>
@@ -8529,10 +8535,10 @@
         <v>-0.130520135903297</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.630719081114533</v>
+        <v>0.63071908111453</v>
       </c>
       <c r="R127" t="n">
-        <v>-0.889168376374505</v>
+        <v>-0.8891683763745</v>
       </c>
     </row>
     <row r="128">
@@ -8697,10 +8703,10 @@
         <v>0.477777777777778</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.74711988115796</v>
+        <v>0.747119881157959</v>
       </c>
       <c r="R130" t="n">
-        <v>0.0736636542834255</v>
+        <v>0.0736636542834256</v>
       </c>
     </row>
     <row r="131">
@@ -8756,7 +8762,7 @@
         <v>0.0758703344133654</v>
       </c>
       <c r="R131" t="n">
-        <v>-1.492702516193</v>
+        <v>-1.49270251619299</v>
       </c>
     </row>
     <row r="132">
@@ -8844,7 +8850,7 @@
         <v>0.00478146977150797</v>
       </c>
       <c r="J133" t="n">
-        <v>0.834719486781773</v>
+        <v>0.834719486781772</v>
       </c>
       <c r="K133" t="s">
         <v>23</v>
@@ -8865,10 +8871,10 @@
         <v>0.477777777777778</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.74711988115796</v>
+        <v>0.747119881157959</v>
       </c>
       <c r="R133" t="n">
-        <v>0.0736636542834255</v>
+        <v>0.0736636542834256</v>
       </c>
     </row>
     <row r="134">
@@ -8924,7 +8930,7 @@
         <v>0.721274686855818</v>
       </c>
       <c r="R134" t="n">
-        <v>0.0176881085034944</v>
+        <v>0.0176881085034943</v>
       </c>
     </row>
     <row r="135">
@@ -9068,7 +9074,7 @@
         <v>0.0113134331925945</v>
       </c>
       <c r="J137" t="n">
-        <v>0.579292954522567</v>
+        <v>0.579292954522566</v>
       </c>
       <c r="K137" t="s">
         <v>23</v>
@@ -9089,10 +9095,10 @@
         <v>0.477777777777778</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.74711988115796</v>
+        <v>0.747119881157959</v>
       </c>
       <c r="R137" t="n">
-        <v>0.0736636542834255</v>
+        <v>0.0736636542834256</v>
       </c>
     </row>
     <row r="138">
@@ -9142,13 +9148,13 @@
         <v>21</v>
       </c>
       <c r="P138" t="n">
-        <v>-0.682899691067598</v>
+        <v>-0.682899691067599</v>
       </c>
       <c r="Q138" t="n">
         <v>0.105612470993567</v>
       </c>
       <c r="R138" t="n">
-        <v>-1.45859063642731</v>
+        <v>-1.45859063642732</v>
       </c>
     </row>
     <row r="139">
@@ -9257,10 +9263,10 @@
         <v>0.483333333333333</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.750294262854344</v>
+        <v>0.750294262854343</v>
       </c>
       <c r="R140" t="n">
-        <v>0.0808443288173376</v>
+        <v>0.0808443288173375</v>
       </c>
     </row>
     <row r="141">
@@ -9316,7 +9322,7 @@
         <v>0.734298292640325</v>
       </c>
       <c r="R141" t="n">
-        <v>0.045353944438235</v>
+        <v>0.0453539444382349</v>
       </c>
     </row>
     <row r="142">
@@ -9339,7 +9345,7 @@
         <v>0.36856008867814</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0764418658021915</v>
+        <v>0.0764418658021916</v>
       </c>
       <c r="H142" t="n">
         <v>0.233800913719796</v>
@@ -10489,7 +10495,7 @@
         <v>-0.446010861933308</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.327306150380874</v>
+        <v>0.327306150380869</v>
       </c>
       <c r="R162" t="n">
         <v>-1.21067475000725</v>
@@ -10524,7 +10530,7 @@
         <v>0.000528061043429621</v>
       </c>
       <c r="J163" t="n">
-        <v>0.67910092957238</v>
+        <v>0.679100929572381</v>
       </c>
       <c r="K163" t="s">
         <v>23</v>
@@ -10657,7 +10663,7 @@
         <v>-0.259379152933674</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.505632198926993</v>
+        <v>0.505632198926992</v>
       </c>
       <c r="R165" t="n">
         <v>-1.01927429908667</v>
@@ -11049,7 +11055,7 @@
         <v>-0.344437758449225</v>
       </c>
       <c r="Q172" t="n">
-        <v>0.423947582961381</v>
+        <v>0.423947582961383</v>
       </c>
       <c r="R172" t="n">
         <v>-1.10607301361115</v>
@@ -11252,7 +11258,7 @@
         <v>0.648515100696064</v>
       </c>
       <c r="J176" t="n">
-        <v>0.746829224700186</v>
+        <v>0.746829224700187</v>
       </c>
       <c r="K176" t="s">
         <v>19</v>
@@ -11476,7 +11482,7 @@
         <v>0.0191889749703546</v>
       </c>
       <c r="J180" t="n">
-        <v>0.564199689592486</v>
+        <v>0.564199689592487</v>
       </c>
       <c r="K180" t="s">
         <v>23</v>
@@ -11868,7 +11874,7 @@
         <v>0.0191889749703546</v>
       </c>
       <c r="J187" t="n">
-        <v>0.564199689592486</v>
+        <v>0.564199689592487</v>
       </c>
       <c r="K187" t="s">
         <v>23</v>
@@ -12260,7 +12266,7 @@
         <v>0.126767040360194</v>
       </c>
       <c r="J194" t="n">
-        <v>0.0258944487337676</v>
+        <v>0.0258944487337677</v>
       </c>
       <c r="K194" t="s">
         <v>42</v>
@@ -12316,13 +12322,13 @@
         <v>0.161823416956442</v>
       </c>
       <c r="J195" t="n">
-        <v>0.0074618688856774</v>
+        <v>0.00746186888567738</v>
       </c>
       <c r="K195" t="s">
         <v>42</v>
       </c>
       <c r="L195" t="n">
-        <v>0.0215671928247656</v>
+        <v>0.0215671928247655</v>
       </c>
       <c r="M195" t="s">
         <v>20</v>
@@ -12334,10 +12340,10 @@
         <v>21</v>
       </c>
       <c r="P195" t="n">
-        <v>-0.92738118533625</v>
+        <v>-0.927381185336249</v>
       </c>
       <c r="Q195" t="n">
-        <v>-0.134479612783281</v>
+        <v>-0.134479612783285</v>
       </c>
       <c r="R195" t="n">
         <v>-1.70170906721146</v>
@@ -12363,7 +12369,7 @@
         <v>0.387419217402218</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0789364341969189</v>
+        <v>0.0789364341969188</v>
       </c>
       <c r="H196" t="n">
         <v>0.025656959834684</v>
@@ -12540,7 +12546,7 @@
         <v>0.144720815470808</v>
       </c>
       <c r="J199" t="n">
-        <v>0.0720916336310812</v>
+        <v>0.0720916336310813</v>
       </c>
       <c r="K199" t="s">
         <v>19</v>
@@ -12596,7 +12602,7 @@
         <v>0.255508026686611</v>
       </c>
       <c r="J200" t="n">
-        <v>0.0217906417848244</v>
+        <v>0.0217906417848245</v>
       </c>
       <c r="K200" t="s">
         <v>42</v>
@@ -12932,7 +12938,7 @@
         <v>0.127749944179753</v>
       </c>
       <c r="J206" t="n">
-        <v>0.0263481391057637</v>
+        <v>0.0263481391057638</v>
       </c>
       <c r="K206" t="s">
         <v>42</v>
@@ -13147,7 +13153,7 @@
         <v>367.133333333333</v>
       </c>
       <c r="G210" t="n">
-        <v>182.502002598276</v>
+        <v>182.502002598275</v>
       </c>
       <c r="H210" t="n">
         <v>0.120015393170634</v>
@@ -13274,7 +13280,7 @@
         <v>19</v>
       </c>
       <c r="L212" t="n">
-        <v>0.0929177297527151</v>
+        <v>0.092917729752715</v>
       </c>
       <c r="M212" t="s">
         <v>20</v>
@@ -13292,7 +13298,7 @@
         <v>1.4519276223962</v>
       </c>
       <c r="R212" t="n">
-        <v>-0.111442332473214</v>
+        <v>-0.111442332473217</v>
       </c>
     </row>
     <row r="213">
@@ -13348,7 +13354,7 @@
         <v>1.5119490361393</v>
       </c>
       <c r="R213" t="n">
-        <v>-0.0591667602127574</v>
+        <v>-0.0591667602127576</v>
       </c>
     </row>
     <row r="214">
@@ -13737,10 +13743,10 @@
         <v>0</v>
       </c>
       <c r="Q220" t="n">
-        <v>0.41885568961342</v>
+        <v>0.418855689613421</v>
       </c>
       <c r="R220" t="n">
-        <v>-0.41885568961342</v>
+        <v>-0.418855689613421</v>
       </c>
     </row>
     <row r="221">
@@ -13828,7 +13834,7 @@
         <v>0.000591882671667165</v>
       </c>
       <c r="J222" t="n">
-        <v>0.590316837802959</v>
+        <v>0.59031683780296</v>
       </c>
       <c r="K222" t="s">
         <v>23</v>
@@ -14129,10 +14135,10 @@
         <v>0</v>
       </c>
       <c r="Q227" t="n">
-        <v>0.41885568961342</v>
+        <v>0.418855689613421</v>
       </c>
       <c r="R227" t="n">
-        <v>-0.41885568961342</v>
+        <v>-0.418855689613421</v>
       </c>
     </row>
     <row r="228">
@@ -14220,7 +14226,7 @@
         <v>0.000591882671667165</v>
       </c>
       <c r="J229" t="n">
-        <v>0.590316837802959</v>
+        <v>0.59031683780296</v>
       </c>
       <c r="K229" t="s">
         <v>23</v>
@@ -14261,7 +14267,7 @@
         <v>0.261702390071633</v>
       </c>
       <c r="E230" t="n">
-        <v>0.0645299830877445</v>
+        <v>0.0645299830877444</v>
       </c>
       <c r="F230" t="n">
         <v>0.291589097915397</v>
@@ -14353,10 +14359,10 @@
         <v>-0.0174603928342439</v>
       </c>
       <c r="Q231" t="n">
-        <v>0.741819270036839</v>
+        <v>0.741819270036842</v>
       </c>
       <c r="R231" t="n">
-        <v>-0.776392798454462</v>
+        <v>-0.776392798454476</v>
       </c>
     </row>
     <row r="232">
@@ -14388,7 +14394,7 @@
         <v>0.130557779878092</v>
       </c>
       <c r="J232" t="n">
-        <v>0.807310274787673</v>
+        <v>0.807310274787674</v>
       </c>
       <c r="K232" t="s">
         <v>23</v>
@@ -14524,7 +14530,7 @@
         <v>1.07783643601123</v>
       </c>
       <c r="R234" t="n">
-        <v>-0.450369404097195</v>
+        <v>-0.450369404097197</v>
       </c>
     </row>
     <row r="235">
@@ -15004,7 +15010,7 @@
         <v>0.057506555035257</v>
       </c>
       <c r="J243" t="n">
-        <v>0.395069453929427</v>
+        <v>0.395069453929426</v>
       </c>
       <c r="K243" t="s">
         <v>23</v>
@@ -15028,7 +15034,7 @@
         <v>0.543303432487671</v>
       </c>
       <c r="R243" t="n">
-        <v>-0.276396448063116</v>
+        <v>-0.276396448063115</v>
       </c>
     </row>
     <row r="244">
@@ -15116,7 +15122,7 @@
         <v>0.0000876324119441804</v>
       </c>
       <c r="J245" t="n">
-        <v>0.46032494800291</v>
+        <v>0.460324948002911</v>
       </c>
       <c r="K245" t="s">
         <v>23</v>
@@ -15228,7 +15234,7 @@
         <v>0.26067669731245</v>
       </c>
       <c r="J247" t="n">
-        <v>0.892350369157651</v>
+        <v>0.89235036915765</v>
       </c>
       <c r="K247" t="s">
         <v>23</v>
@@ -15340,7 +15346,7 @@
         <v>0.88761690043414</v>
       </c>
       <c r="J249" t="n">
-        <v>0.938954381942257</v>
+        <v>0.938954381942256</v>
       </c>
       <c r="K249" t="s">
         <v>19</v>
@@ -15470,7 +15476,7 @@
         <v>21</v>
       </c>
       <c r="P251" t="n">
-        <v>-0.59840274737903</v>
+        <v>-0.598402747379031</v>
       </c>
       <c r="Q251" t="n">
         <v>0.184109361872954</v>
@@ -15620,7 +15626,7 @@
         <v>0.478794982595744</v>
       </c>
       <c r="J254" t="n">
-        <v>0.221487494993079</v>
+        <v>0.22148749499308</v>
       </c>
       <c r="K254" t="s">
         <v>19</v>
@@ -15700,7 +15706,7 @@
         <v>-0.397770098679613</v>
       </c>
       <c r="R255" t="n">
-        <v>-0.865184480157872</v>
+        <v>-0.865184480157873</v>
       </c>
     </row>
     <row r="256">
@@ -15941,7 +15947,7 @@
         <v>314.083333333333</v>
       </c>
       <c r="E260" t="n">
-        <v>82.0426256542441</v>
+        <v>82.042625654244</v>
       </c>
       <c r="F260" t="n">
         <v>458.2</v>
@@ -16012,7 +16018,7 @@
         <v>0.336386716968858</v>
       </c>
       <c r="J261" t="n">
-        <v>0.825794026379784</v>
+        <v>0.825794026379785</v>
       </c>
       <c r="K261" t="s">
         <v>23</v>
@@ -16068,19 +16074,19 @@
         <v>0.849174593359183</v>
       </c>
       <c r="J262" t="n">
-        <v>0.976417813234529</v>
+        <v>0.976417813234528</v>
       </c>
       <c r="K262" t="s">
         <v>19</v>
       </c>
       <c r="L262" t="n">
-        <v>0.0276374042537752</v>
+        <v>0.0276374042537753</v>
       </c>
       <c r="M262" t="s">
         <v>20</v>
       </c>
       <c r="N262" t="n">
-        <v>-2.33884864837976</v>
+        <v>-2.33884864837975</v>
       </c>
       <c r="O262" t="s">
         <v>21</v>
@@ -16130,7 +16136,7 @@
         <v>19</v>
       </c>
       <c r="L263" t="n">
-        <v>0.00265439437695605</v>
+        <v>0.00265439437695604</v>
       </c>
       <c r="M263" t="s">
         <v>20</v>
@@ -16354,7 +16360,7 @@
         <v>19</v>
       </c>
       <c r="L267" t="n">
-        <v>0.000504497364071101</v>
+        <v>0.000504497364071099</v>
       </c>
       <c r="M267" t="s">
         <v>20</v>
@@ -16372,7 +16378,7 @@
         <v>2.40533141664406</v>
       </c>
       <c r="R267" t="n">
-        <v>0.664002383513014</v>
+        <v>0.66400238351301</v>
       </c>
     </row>
     <row r="268">
@@ -16466,7 +16472,7 @@
         <v>19</v>
       </c>
       <c r="L269" t="n">
-        <v>0.000504497364071101</v>
+        <v>0.000504497364071099</v>
       </c>
       <c r="M269" t="s">
         <v>20</v>
@@ -16484,7 +16490,7 @@
         <v>2.40533141664406</v>
       </c>
       <c r="R269" t="n">
-        <v>0.664002383513014</v>
+        <v>0.66400238351301</v>
       </c>
     </row>
     <row r="270">
@@ -16557,7 +16563,7 @@
         <v>149.333333333333</v>
       </c>
       <c r="E271" t="n">
-        <v>36.787679096857</v>
+        <v>36.7876790968571</v>
       </c>
       <c r="F271" t="n">
         <v>134.6</v>
@@ -16572,7 +16578,7 @@
         <v>0.709938154806492</v>
       </c>
       <c r="J271" t="n">
-        <v>0.935517626003547</v>
+        <v>0.935517626003546</v>
       </c>
       <c r="K271" t="s">
         <v>23</v>
@@ -16740,7 +16746,7 @@
         <v>0.778990532144792</v>
       </c>
       <c r="J274" t="n">
-        <v>0.90587618586472</v>
+        <v>0.905876185864721</v>
       </c>
       <c r="K274" t="s">
         <v>19</v>
@@ -16929,7 +16935,7 @@
         <v>-0.700729462741926</v>
       </c>
       <c r="Q277" t="n">
-        <v>0.0891289925297134</v>
+        <v>0.0891289925297135</v>
       </c>
       <c r="R277" t="n">
         <v>-1.47747078766558</v>
@@ -16964,7 +16970,7 @@
         <v>0.739397374670669</v>
       </c>
       <c r="J278" t="n">
-        <v>0.997618172040062</v>
+        <v>0.997618172040063</v>
       </c>
       <c r="K278" t="s">
         <v>19</v>
@@ -17377,7 +17383,7 @@
         <v>-0.700729462741926</v>
       </c>
       <c r="Q285" t="n">
-        <v>0.0891289925297134</v>
+        <v>0.0891289925297135</v>
       </c>
       <c r="R285" t="n">
         <v>-1.47747078766558</v>
@@ -17433,7 +17439,7 @@
         <v>-0.700729462741926</v>
       </c>
       <c r="Q286" t="n">
-        <v>0.0891289925297134</v>
+        <v>0.0891289925297135</v>
       </c>
       <c r="R286" t="n">
         <v>-1.47747078766558</v>
@@ -17489,10 +17495,10 @@
         <v>0.700729462741925</v>
       </c>
       <c r="Q287" t="n">
-        <v>1.47747085159079</v>
+        <v>1.47747085159078</v>
       </c>
       <c r="R287" t="n">
-        <v>-0.0891289471871176</v>
+        <v>-0.0891289471871152</v>
       </c>
     </row>
     <row r="288">
@@ -17545,7 +17551,7 @@
         <v>-0.700729462741926</v>
       </c>
       <c r="Q288" t="n">
-        <v>0.0891289925297134</v>
+        <v>0.0891289925297135</v>
       </c>
       <c r="R288" t="n">
         <v>-1.47747078766558</v>
@@ -17601,10 +17607,10 @@
         <v>0.700729462741925</v>
       </c>
       <c r="Q289" t="n">
-        <v>1.47747085159079</v>
+        <v>1.47747085159078</v>
       </c>
       <c r="R289" t="n">
-        <v>-0.0891289471871176</v>
+        <v>-0.0891289471871152</v>
       </c>
     </row>
     <row r="290">
@@ -17692,7 +17698,7 @@
         <v>0.278339248306879</v>
       </c>
       <c r="J291" t="n">
-        <v>0.372835358716913</v>
+        <v>0.372835358716914</v>
       </c>
       <c r="K291" t="s">
         <v>19</v>
@@ -17857,7 +17863,7 @@
         <v>0.342704086816858</v>
       </c>
       <c r="I294" t="n">
-        <v>0.20160620180829</v>
+        <v>0.201606201808291</v>
       </c>
       <c r="J294" t="n">
         <v>0.388342276253114</v>
@@ -17916,7 +17922,7 @@
         <v>0.366480240308811</v>
       </c>
       <c r="J295" t="n">
-        <v>0.0750388850365709</v>
+        <v>0.0750388850365711</v>
       </c>
       <c r="K295" t="s">
         <v>19</v>
@@ -17937,7 +17943,7 @@
         <v>-0.845452371380257</v>
       </c>
       <c r="Q295" t="n">
-        <v>-0.0436590600398422</v>
+        <v>-0.0436590600398432</v>
       </c>
       <c r="R295" t="n">
         <v>-1.63183378573319</v>
@@ -18010,49 +18016,49 @@
         <v>15</v>
       </c>
       <c r="D297" t="n">
-        <v>0.420151352122184</v>
+        <v>0.641378208182985</v>
       </c>
       <c r="E297" t="n">
-        <v>0.0439273004667644</v>
+        <v>0.054822195192116</v>
       </c>
       <c r="F297" t="n">
-        <v>0.457438786190215</v>
+        <v>0.702003609448773</v>
       </c>
       <c r="G297" t="n">
-        <v>0.0425371464115217</v>
+        <v>0.0359991675879424</v>
       </c>
       <c r="H297" t="n">
-        <v>0.289274795757932</v>
+        <v>0.00514665605122715</v>
       </c>
       <c r="I297" t="n">
-        <v>0.128831504949327</v>
+        <v>0.635840275948022</v>
       </c>
       <c r="J297" t="n">
-        <v>0.736927422197795</v>
+        <v>0.651232912163758</v>
       </c>
       <c r="K297" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L297" t="n">
-        <v>0.0348900748812281</v>
+        <v>0.000904806834080876</v>
       </c>
       <c r="M297" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N297" t="n">
-        <v>-2.23096354557334</v>
+        <v>21.5</v>
       </c>
       <c r="O297" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P297" t="n">
-        <v>-0.86404846580014</v>
+        <v>-0.761111111111111</v>
       </c>
       <c r="Q297" t="n">
-        <v>-0.0605940500559451</v>
+        <v>-0.502426997602648</v>
       </c>
       <c r="R297" t="n">
-        <v>-1.65181028708585</v>
+        <v>-0.894730535928445</v>
       </c>
     </row>
     <row r="298">
@@ -18066,49 +18072,49 @@
         <v>15</v>
       </c>
       <c r="D298" t="n">
-        <v>0.21509958995283</v>
+        <v>0.420151352122184</v>
       </c>
       <c r="E298" t="n">
-        <v>0.0302814029334891</v>
+        <v>0.0439273004667644</v>
       </c>
       <c r="F298" t="n">
-        <v>0.236334163718735</v>
+        <v>0.457438786190215</v>
       </c>
       <c r="G298" t="n">
-        <v>0.0324740067373388</v>
+        <v>0.0425371464115218</v>
       </c>
       <c r="H298" t="n">
-        <v>0.372462139565088</v>
+        <v>0.289274795757932</v>
       </c>
       <c r="I298" t="n">
-        <v>0.354693041686264</v>
+        <v>0.128831504949327</v>
       </c>
       <c r="J298" t="n">
-        <v>0.850947810485674</v>
+        <v>0.736927422197795</v>
       </c>
       <c r="K298" t="s">
         <v>19</v>
       </c>
       <c r="L298" t="n">
-        <v>0.0943355432853351</v>
+        <v>0.0348900748812281</v>
       </c>
       <c r="M298" t="s">
         <v>20</v>
       </c>
       <c r="N298" t="n">
-        <v>-1.7390047626214</v>
+        <v>-2.23096354557334</v>
       </c>
       <c r="O298" t="s">
         <v>21</v>
       </c>
       <c r="P298" t="n">
-        <v>-0.673513648460807</v>
+        <v>-0.86404846580014</v>
       </c>
       <c r="Q298" t="n">
-        <v>0.11430089420738</v>
+        <v>-0.0605940500559451</v>
       </c>
       <c r="R298" t="n">
-        <v>-1.44866366984229</v>
+        <v>-1.65181028708585</v>
       </c>
     </row>
     <row r="299">
@@ -18122,49 +18128,49 @@
         <v>15</v>
       </c>
       <c r="D299" t="n">
-        <v>1154.41666666667</v>
+        <v>0.21509958995283</v>
       </c>
       <c r="E299" t="n">
-        <v>456.342267548728</v>
+        <v>0.0302814029334891</v>
       </c>
       <c r="F299" t="n">
-        <v>1715.6</v>
+        <v>0.236334163718735</v>
       </c>
       <c r="G299" t="n">
-        <v>369.343007437337</v>
+        <v>0.0324740067373388</v>
       </c>
       <c r="H299" t="n">
-        <v>0.379050410168204</v>
+        <v>0.372462139565088</v>
       </c>
       <c r="I299" t="n">
-        <v>0.192190728441879</v>
+        <v>0.354693041686264</v>
       </c>
       <c r="J299" t="n">
-        <v>0.794024836724273</v>
+        <v>0.850947810485674</v>
       </c>
       <c r="K299" t="s">
         <v>19</v>
       </c>
       <c r="L299" t="n">
-        <v>0.00161738231218012</v>
+        <v>0.0943355432853351</v>
       </c>
       <c r="M299" t="s">
         <v>20</v>
       </c>
       <c r="N299" t="n">
-        <v>-3.53489946838312</v>
+        <v>-1.7390047626214</v>
       </c>
       <c r="O299" t="s">
         <v>21</v>
       </c>
       <c r="P299" t="n">
-        <v>-1.36906067715653</v>
+        <v>-0.673513648460807</v>
       </c>
       <c r="Q299" t="n">
-        <v>-0.510282480088682</v>
+        <v>0.11430089420738</v>
       </c>
       <c r="R299" t="n">
-        <v>-2.20585150551153</v>
+        <v>-1.44866366984229</v>
       </c>
     </row>
     <row r="300">
@@ -18178,49 +18184,49 @@
         <v>15</v>
       </c>
       <c r="D300" t="n">
-        <v>109.833333333333</v>
+        <v>1154.41666666667</v>
       </c>
       <c r="E300" t="n">
-        <v>25.1643085389292</v>
+        <v>456.342267548728</v>
       </c>
       <c r="F300" t="n">
-        <v>132.533333333333</v>
+        <v>1715.6</v>
       </c>
       <c r="G300" t="n">
-        <v>30.6777412715442</v>
+        <v>369.343007437338</v>
       </c>
       <c r="H300" t="n">
-        <v>0.185331741690157</v>
+        <v>0.379050410168204</v>
       </c>
       <c r="I300" t="n">
-        <v>0.492770439306912</v>
+        <v>0.192190728441879</v>
       </c>
       <c r="J300" t="n">
-        <v>0.502427928095471</v>
+        <v>0.794024836724273</v>
       </c>
       <c r="K300" t="s">
         <v>19</v>
       </c>
       <c r="L300" t="n">
-        <v>0.0494474475912293</v>
+        <v>0.00161738231218012</v>
       </c>
       <c r="M300" t="s">
         <v>20</v>
       </c>
       <c r="N300" t="n">
-        <v>-2.06493033699591</v>
+        <v>-3.53489946838312</v>
       </c>
       <c r="O300" t="s">
         <v>21</v>
       </c>
       <c r="P300" t="n">
-        <v>-0.799744080626363</v>
+        <v>-1.36906067715653</v>
       </c>
       <c r="Q300" t="n">
-        <v>-0.00191150410507794</v>
+        <v>-0.510282480088682</v>
       </c>
       <c r="R300" t="n">
-        <v>-1.58286871974689</v>
+        <v>-2.20585150551153</v>
       </c>
     </row>
     <row r="301">
@@ -18234,49 +18240,49 @@
         <v>15</v>
       </c>
       <c r="D301" t="n">
-        <v>248.083333333333</v>
+        <v>109.833333333333</v>
       </c>
       <c r="E301" t="n">
-        <v>61.5075137070606</v>
+        <v>25.1643085389292</v>
       </c>
       <c r="F301" t="n">
-        <v>334.4</v>
+        <v>132.533333333333</v>
       </c>
       <c r="G301" t="n">
-        <v>97.7604945042438</v>
+        <v>30.6777412715443</v>
       </c>
       <c r="H301" t="n">
-        <v>0.517001073156686</v>
+        <v>0.185331741690157</v>
       </c>
       <c r="I301" t="n">
-        <v>0.432407347775558</v>
+        <v>0.492770439306912</v>
       </c>
       <c r="J301" t="n">
-        <v>0.0492110984720948</v>
+        <v>0.502427928095471</v>
       </c>
       <c r="K301" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="L301" t="n">
-        <v>0.0100346397708974</v>
+        <v>0.0494474475912294</v>
       </c>
       <c r="M301" t="s">
         <v>20</v>
       </c>
       <c r="N301" t="n">
-        <v>-2.66064094285022</v>
+        <v>-2.06493033699591</v>
       </c>
       <c r="O301" t="s">
         <v>21</v>
       </c>
       <c r="P301" t="n">
-        <v>-1.05688332799137</v>
+        <v>-0.799744080626363</v>
       </c>
       <c r="Q301" t="n">
-        <v>-0.248928903344359</v>
+        <v>-0.00191150410507794</v>
       </c>
       <c r="R301" t="n">
-        <v>-1.84579620899784</v>
+        <v>-1.58286871974689</v>
       </c>
     </row>
     <row r="302">
@@ -18290,49 +18296,49 @@
         <v>15</v>
       </c>
       <c r="D302" t="n">
-        <v>7.91666666666667</v>
+        <v>248.083333333333</v>
       </c>
       <c r="E302" t="n">
-        <v>7.14089799972134</v>
+        <v>61.5075137070606</v>
       </c>
       <c r="F302" t="n">
-        <v>8.06666666666667</v>
+        <v>334.4</v>
       </c>
       <c r="G302" t="n">
-        <v>5.37808604652338</v>
+        <v>97.7604945042438</v>
       </c>
       <c r="H302" t="n">
-        <v>0.000552925019657727</v>
+        <v>0.517001073156686</v>
       </c>
       <c r="I302" t="n">
-        <v>0.101710301726663</v>
+        <v>0.432407347775558</v>
       </c>
       <c r="J302" t="n">
-        <v>0.826282966849978</v>
+        <v>0.0492110984720948</v>
       </c>
       <c r="K302" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="L302" t="n">
-        <v>0.806408343448487</v>
+        <v>0.0100346397708974</v>
       </c>
       <c r="M302" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N302" t="n">
-        <v>84.5</v>
+        <v>-2.66064094285022</v>
       </c>
       <c r="O302" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P302" t="n">
-        <v>-0.0611111111111111</v>
+        <v>-1.05688332799137</v>
       </c>
       <c r="Q302" t="n">
-        <v>0.36714222122926</v>
+        <v>-0.248928903344359</v>
       </c>
       <c r="R302" t="n">
-        <v>-0.467987839276426</v>
+        <v>-1.84579620899784</v>
       </c>
     </row>
     <row r="303">
@@ -18346,49 +18352,49 @@
         <v>15</v>
       </c>
       <c r="D303" t="n">
-        <v>101.916666666667</v>
+        <v>7.91666666666667</v>
       </c>
       <c r="E303" t="n">
-        <v>21.458028094328</v>
+        <v>7.14089799972134</v>
       </c>
       <c r="F303" t="n">
-        <v>124.466666666667</v>
+        <v>8.06666666666667</v>
       </c>
       <c r="G303" t="n">
-        <v>28.908393903765</v>
+        <v>5.37808604652338</v>
       </c>
       <c r="H303" t="n">
-        <v>0.51289039380967</v>
+        <v>0.000552925019657727</v>
       </c>
       <c r="I303" t="n">
-        <v>0.305802190738183</v>
+        <v>0.101710301726663</v>
       </c>
       <c r="J303" t="n">
-        <v>0.397739204342696</v>
+        <v>0.826282966849978</v>
       </c>
       <c r="K303" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L303" t="n">
-        <v>0.033611614693779</v>
+        <v>0.806408343448487</v>
       </c>
       <c r="M303" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N303" t="n">
-        <v>-2.24840051207789</v>
+        <v>84.5</v>
       </c>
       <c r="O303" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P303" t="n">
-        <v>-0.870801773888189</v>
+        <v>-0.0611111111111111</v>
       </c>
       <c r="Q303" t="n">
-        <v>-0.0667372248600407</v>
+        <v>0.36714222122926</v>
       </c>
       <c r="R303" t="n">
-        <v>-1.65907274915932</v>
+        <v>-0.467987839276426</v>
       </c>
     </row>
     <row r="304">
@@ -18402,49 +18408,49 @@
         <v>15</v>
       </c>
       <c r="D304" t="n">
-        <v>141.416666666667</v>
+        <v>101.916666666667</v>
       </c>
       <c r="E304" t="n">
-        <v>43.9906153903789</v>
+        <v>21.458028094328</v>
       </c>
       <c r="F304" t="n">
-        <v>197.266666666667</v>
+        <v>124.466666666667</v>
       </c>
       <c r="G304" t="n">
-        <v>76.3595504988142</v>
+        <v>28.908393903765</v>
       </c>
       <c r="H304" t="n">
-        <v>0.607152023204817</v>
+        <v>0.51289039380967</v>
       </c>
       <c r="I304" t="n">
-        <v>0.385186326655968</v>
+        <v>0.305802190738183</v>
       </c>
       <c r="J304" t="n">
-        <v>0.0473280040797715</v>
+        <v>0.397739204342696</v>
       </c>
       <c r="K304" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="L304" t="n">
-        <v>0.0259076541441251</v>
+        <v>0.033611614693779</v>
       </c>
       <c r="M304" t="s">
         <v>20</v>
       </c>
       <c r="N304" t="n">
-        <v>-2.24751293427768</v>
+        <v>-2.24840051207789</v>
       </c>
       <c r="O304" t="s">
         <v>21</v>
       </c>
       <c r="P304" t="n">
-        <v>-0.896273869631644</v>
+        <v>-0.870801773888189</v>
       </c>
       <c r="Q304" t="n">
-        <v>-0.106283687959687</v>
+        <v>-0.0667372248600411</v>
       </c>
       <c r="R304" t="n">
-        <v>-1.6689344039875</v>
+        <v>-1.65907274915934</v>
       </c>
     </row>
     <row r="305">
@@ -18458,49 +18464,49 @@
         <v>15</v>
       </c>
       <c r="D305" t="n">
-        <v>65.9166666666667</v>
+        <v>141.416666666667</v>
       </c>
       <c r="E305" t="n">
-        <v>11.3814708534477</v>
+        <v>43.9906153903789</v>
       </c>
       <c r="F305" t="n">
-        <v>89.1333333333333</v>
+        <v>197.266666666667</v>
       </c>
       <c r="G305" t="n">
-        <v>20.3991129592394</v>
+        <v>76.3595504988142</v>
       </c>
       <c r="H305" t="n">
-        <v>0.577065296750775</v>
+        <v>0.607152023204817</v>
       </c>
       <c r="I305" t="n">
-        <v>0.799705022916375</v>
+        <v>0.385186326655968</v>
       </c>
       <c r="J305" t="n">
-        <v>0.121620854177383</v>
+        <v>0.0473280040797716</v>
       </c>
       <c r="K305" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="L305" t="n">
-        <v>0.00167930706280328</v>
+        <v>0.0259076541441251</v>
       </c>
       <c r="M305" t="s">
         <v>20</v>
       </c>
       <c r="N305" t="n">
-        <v>-3.51994412862237</v>
+        <v>-2.24751293427768</v>
       </c>
       <c r="O305" t="s">
         <v>21</v>
       </c>
       <c r="P305" t="n">
-        <v>-1.3632684989735</v>
+        <v>-0.896273869631644</v>
       </c>
       <c r="Q305" t="n">
-        <v>-0.505229028885324</v>
+        <v>-0.106283687959687</v>
       </c>
       <c r="R305" t="n">
-        <v>-2.19937819854707</v>
+        <v>-1.6689344039875</v>
       </c>
     </row>
     <row r="306">
@@ -18514,49 +18520,49 @@
         <v>15</v>
       </c>
       <c r="D306" t="n">
-        <v>0.641378208182985</v>
+        <v>65.9166666666667</v>
       </c>
       <c r="E306" t="n">
-        <v>0.054822195192116</v>
+        <v>11.3814708534477</v>
       </c>
       <c r="F306" t="n">
-        <v>0.702003609448773</v>
+        <v>89.1333333333333</v>
       </c>
       <c r="G306" t="n">
-        <v>0.0359991675879424</v>
+        <v>20.3991129592394</v>
       </c>
       <c r="H306" t="n">
-        <v>0.00514665605122715</v>
+        <v>0.577065296750775</v>
       </c>
       <c r="I306" t="n">
-        <v>0.635840275948022</v>
+        <v>0.799705022916375</v>
       </c>
       <c r="J306" t="n">
-        <v>0.651232912163758</v>
+        <v>0.121620854177383</v>
       </c>
       <c r="K306" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L306" t="n">
-        <v>0.000904806834080876</v>
+        <v>0.00167930706280328</v>
       </c>
       <c r="M306" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N306" t="n">
-        <v>21.5</v>
+        <v>-3.51994412862237</v>
       </c>
       <c r="O306" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P306" t="n">
-        <v>-0.761111111111111</v>
+        <v>-1.3632684989735</v>
       </c>
       <c r="Q306" t="n">
-        <v>-0.502426997602648</v>
+        <v>-0.505229028885324</v>
       </c>
       <c r="R306" t="n">
-        <v>-0.894730535928445</v>
+        <v>-2.19937819854707</v>
       </c>
     </row>
     <row r="307">
@@ -18570,49 +18576,49 @@
         <v>15</v>
       </c>
       <c r="D307" t="n">
-        <v>0.41491539998379</v>
+        <v>0.641378208182985</v>
       </c>
       <c r="E307" t="n">
-        <v>0.0491715902069719</v>
+        <v>0.054822195192116</v>
       </c>
       <c r="F307" t="n">
-        <v>0.457095840574172</v>
+        <v>0.702003609448773</v>
       </c>
       <c r="G307" t="n">
-        <v>0.04606176001241</v>
+        <v>0.0359991675879424</v>
       </c>
       <c r="H307" t="n">
-        <v>0.13823231624245</v>
+        <v>0.00514665605122715</v>
       </c>
       <c r="I307" t="n">
-        <v>0.27159945495145</v>
+        <v>0.635840275948022</v>
       </c>
       <c r="J307" t="n">
-        <v>0.745581385503251</v>
+        <v>0.651232912163758</v>
       </c>
       <c r="K307" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L307" t="n">
-        <v>0.0304012331876218</v>
+        <v>0.000904806834080876</v>
       </c>
       <c r="M307" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N307" t="n">
-        <v>-2.29499466862677</v>
+        <v>21.5</v>
       </c>
       <c r="O307" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P307" t="n">
-        <v>-0.888847613122631</v>
+        <v>-0.761111111111111</v>
       </c>
       <c r="Q307" t="n">
-        <v>-0.0831335537812465</v>
+        <v>-0.502426997602648</v>
       </c>
       <c r="R307" t="n">
-        <v>-1.67849964244741</v>
+        <v>-0.894730535928445</v>
       </c>
     </row>
     <row r="308">
@@ -18626,49 +18632,49 @@
         <v>15</v>
       </c>
       <c r="D308" t="n">
-        <v>0.215368160752149</v>
+        <v>0.41491539998379</v>
       </c>
       <c r="E308" t="n">
-        <v>0.0325621809338494</v>
+        <v>0.0491715902069719</v>
       </c>
       <c r="F308" t="n">
-        <v>0.232643700206151</v>
+        <v>0.457095840574172</v>
       </c>
       <c r="G308" t="n">
-        <v>0.0383867685870755</v>
+        <v>0.04606176001241</v>
       </c>
       <c r="H308" t="n">
-        <v>0.183082548311803</v>
+        <v>0.13823231624245</v>
       </c>
       <c r="I308" t="n">
-        <v>0.583654761113456</v>
+        <v>0.27159945495145</v>
       </c>
       <c r="J308" t="n">
-        <v>0.384694088603652</v>
+        <v>0.745581385503251</v>
       </c>
       <c r="K308" t="s">
         <v>19</v>
       </c>
       <c r="L308" t="n">
-        <v>0.226093120975778</v>
+        <v>0.0304012331876218</v>
       </c>
       <c r="M308" t="s">
         <v>20</v>
       </c>
       <c r="N308" t="n">
-        <v>-1.24108830815089</v>
+        <v>-2.29499466862677</v>
       </c>
       <c r="O308" t="s">
         <v>21</v>
       </c>
       <c r="P308" t="n">
-        <v>-0.480671434864114</v>
+        <v>-0.888847613122631</v>
       </c>
       <c r="Q308" t="n">
-        <v>0.294549588888318</v>
+        <v>-0.0831335537812465</v>
       </c>
       <c r="R308" t="n">
-        <v>-1.24660421769909</v>
+        <v>-1.67849964244741</v>
       </c>
     </row>
     <row r="309">
@@ -18682,49 +18688,49 @@
         <v>15</v>
       </c>
       <c r="D309" t="n">
-        <v>0.368888411579845</v>
+        <v>0.215368160752149</v>
       </c>
       <c r="E309" t="n">
-        <v>0.0349482330953515</v>
+        <v>0.0325621809338494</v>
       </c>
       <c r="F309" t="n">
-        <v>0.402162630572345</v>
+        <v>0.232643700206151</v>
       </c>
       <c r="G309" t="n">
-        <v>0.028063780772297</v>
+        <v>0.0383867685870755</v>
       </c>
       <c r="H309" t="n">
-        <v>0.0406663566914753</v>
+        <v>0.183082548311803</v>
       </c>
       <c r="I309" t="n">
-        <v>0.0704444357593637</v>
+        <v>0.583654761113456</v>
       </c>
       <c r="J309" t="n">
-        <v>0.908638426220572</v>
+        <v>0.384694088603652</v>
       </c>
       <c r="K309" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L309" t="n">
-        <v>0.0214127357215256</v>
+        <v>0.226093120975778</v>
       </c>
       <c r="M309" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N309" t="n">
-        <v>43</v>
+        <v>-1.24108830815089</v>
       </c>
       <c r="O309" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P309" t="n">
-        <v>-0.522222222222222</v>
+        <v>-0.480671434864114</v>
       </c>
       <c r="Q309" t="n">
-        <v>-0.132306748298269</v>
+        <v>0.294549588888316</v>
       </c>
       <c r="R309" t="n">
-        <v>-0.772175520897053</v>
+        <v>-1.24660421769909</v>
       </c>
     </row>
     <row r="310">
@@ -18738,25 +18744,25 @@
         <v>15</v>
       </c>
       <c r="D310" t="n">
-        <v>0.631111588420155</v>
+        <v>0.368888411579845</v>
       </c>
       <c r="E310" t="n">
         <v>0.0349482330953515</v>
       </c>
       <c r="F310" t="n">
-        <v>0.597837369427655</v>
+        <v>0.402162630572345</v>
       </c>
       <c r="G310" t="n">
-        <v>0.0280637807722969</v>
+        <v>0.028063780772297</v>
       </c>
       <c r="H310" t="n">
-        <v>0.0406663566914744</v>
+        <v>0.0406663566914753</v>
       </c>
       <c r="I310" t="n">
-        <v>0.0704444357593638</v>
+        <v>0.0704444357593637</v>
       </c>
       <c r="J310" t="n">
-        <v>0.908638426220574</v>
+        <v>0.908638426220572</v>
       </c>
       <c r="K310" t="s">
         <v>23</v>
@@ -18768,19 +18774,19 @@
         <v>24</v>
       </c>
       <c r="N310" t="n">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="O310" t="s">
         <v>25</v>
       </c>
       <c r="P310" t="n">
-        <v>0.522222222222222</v>
+        <v>-0.522222222222222</v>
       </c>
       <c r="Q310" t="n">
-        <v>0.772175520897053</v>
+        <v>-0.132306748298269</v>
       </c>
       <c r="R310" t="n">
-        <v>0.132306748298269</v>
+        <v>-0.772175520897053</v>
       </c>
     </row>
     <row r="311">
@@ -18794,49 +18800,49 @@
         <v>15</v>
       </c>
       <c r="D311" t="n">
-        <v>0.36502859017588</v>
+        <v>0.631111588420155</v>
       </c>
       <c r="E311" t="n">
-        <v>0.0390091196071956</v>
+        <v>0.0349482330953515</v>
       </c>
       <c r="F311" t="n">
-        <v>0.400982805482167</v>
+        <v>0.597837369427655</v>
       </c>
       <c r="G311" t="n">
-        <v>0.0302436274078657</v>
+        <v>0.0280637807722969</v>
       </c>
       <c r="H311" t="n">
-        <v>0.0807045535413941</v>
+        <v>0.0406663566914744</v>
       </c>
       <c r="I311" t="n">
-        <v>0.65393416435927</v>
+        <v>0.0704444357593638</v>
       </c>
       <c r="J311" t="n">
-        <v>0.962040512379508</v>
+        <v>0.908638426220575</v>
       </c>
       <c r="K311" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L311" t="n">
-        <v>0.0122452696503519</v>
+        <v>0.0214127357215256</v>
       </c>
       <c r="M311" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N311" t="n">
-        <v>-2.70045728063083</v>
+        <v>137</v>
       </c>
       <c r="O311" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P311" t="n">
-        <v>-1.04588260750278</v>
+        <v>0.522222222222222</v>
       </c>
       <c r="Q311" t="n">
-        <v>-0.224719502047977</v>
+        <v>0.772175520897053</v>
       </c>
       <c r="R311" t="n">
-        <v>-1.84878840276739</v>
+        <v>0.132306748298269</v>
       </c>
     </row>
     <row r="312">
@@ -18850,19 +18856,19 @@
         <v>15</v>
       </c>
       <c r="D312" t="n">
-        <v>0.63497140982412</v>
+        <v>0.36502859017588</v>
       </c>
       <c r="E312" t="n">
         <v>0.0390091196071956</v>
       </c>
       <c r="F312" t="n">
-        <v>0.599017194517833</v>
+        <v>0.400982805482167</v>
       </c>
       <c r="G312" t="n">
         <v>0.0302436274078657</v>
       </c>
       <c r="H312" t="n">
-        <v>0.0807045535413948</v>
+        <v>0.0807045535413941</v>
       </c>
       <c r="I312" t="n">
         <v>0.65393416435927</v>
@@ -18874,25 +18880,25 @@
         <v>19</v>
       </c>
       <c r="L312" t="n">
-        <v>0.0122452696503518</v>
+        <v>0.0122452696503519</v>
       </c>
       <c r="M312" t="s">
         <v>20</v>
       </c>
       <c r="N312" t="n">
-        <v>2.70045728063083</v>
+        <v>-2.70045728063083</v>
       </c>
       <c r="O312" t="s">
         <v>21</v>
       </c>
       <c r="P312" t="n">
-        <v>1.04588260750278</v>
+        <v>-1.04588260750278</v>
       </c>
       <c r="Q312" t="n">
-        <v>1.84878843274599</v>
+        <v>-0.224719502047977</v>
       </c>
       <c r="R312" t="n">
-        <v>0.224719342771657</v>
+        <v>-1.84878840276739</v>
       </c>
     </row>
     <row r="313">
@@ -18906,49 +18912,49 @@
         <v>15</v>
       </c>
       <c r="D313" t="n">
-        <v>1045.16666666667</v>
+        <v>0.63497140982412</v>
       </c>
       <c r="E313" t="n">
-        <v>371.21344835879</v>
+        <v>0.0390091196071956</v>
       </c>
       <c r="F313" t="n">
-        <v>1058.73333333333</v>
+        <v>0.599017194517833</v>
       </c>
       <c r="G313" t="n">
-        <v>580.219843392715</v>
+        <v>0.0302436274078657</v>
       </c>
       <c r="H313" t="n">
-        <v>0.732330673679134</v>
+        <v>0.0807045535413948</v>
       </c>
       <c r="I313" t="n">
-        <v>0.602557271566208</v>
+        <v>0.65393416435927</v>
       </c>
       <c r="J313" t="n">
-        <v>0.14803015594733</v>
+        <v>0.962040512379509</v>
       </c>
       <c r="K313" t="s">
         <v>19</v>
       </c>
       <c r="L313" t="n">
-        <v>0.944611793928658</v>
+        <v>0.0122452696503518</v>
       </c>
       <c r="M313" t="s">
         <v>20</v>
       </c>
       <c r="N313" t="n">
-        <v>-0.0701761596394705</v>
+        <v>2.70045728063083</v>
       </c>
       <c r="O313" t="s">
         <v>21</v>
       </c>
       <c r="P313" t="n">
-        <v>-0.0271791097584462</v>
+        <v>1.04588260750278</v>
       </c>
       <c r="Q313" t="n">
-        <v>0.732218823492242</v>
+        <v>1.84878843274599</v>
       </c>
       <c r="R313" t="n">
-        <v>-0.786036487873929</v>
+        <v>0.224719342771657</v>
       </c>
     </row>
     <row r="314">
@@ -18962,49 +18968,49 @@
         <v>15</v>
       </c>
       <c r="D314" t="n">
-        <v>130.083333333333</v>
+        <v>1045.16666666667</v>
       </c>
       <c r="E314" t="n">
-        <v>34.9946965678914</v>
+        <v>371.21344835879</v>
       </c>
       <c r="F314" t="n">
-        <v>141.4</v>
+        <v>1058.73333333333</v>
       </c>
       <c r="G314" t="n">
-        <v>40.4082735516945</v>
+        <v>580.219843392715</v>
       </c>
       <c r="H314" t="n">
-        <v>0.0451003961569191</v>
+        <v>0.732330673679134</v>
       </c>
       <c r="I314" t="n">
-        <v>0.00394129169920711</v>
+        <v>0.602557271566208</v>
       </c>
       <c r="J314" t="n">
-        <v>0.972959229213408</v>
+        <v>0.14803015594733</v>
       </c>
       <c r="K314" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L314" t="n">
-        <v>0.378900956306171</v>
+        <v>0.944611793928658</v>
       </c>
       <c r="M314" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N314" t="n">
-        <v>71.5</v>
+        <v>-0.0701761596394705</v>
       </c>
       <c r="O314" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P314" t="n">
-        <v>-0.205555555555556</v>
+        <v>-0.0271791097584462</v>
       </c>
       <c r="Q314" t="n">
-        <v>0.233395003686736</v>
+        <v>0.732218823492242</v>
       </c>
       <c r="R314" t="n">
-        <v>-0.574912374060822</v>
+        <v>-0.786036487873929</v>
       </c>
     </row>
     <row r="315">
@@ -19018,49 +19024,49 @@
         <v>15</v>
       </c>
       <c r="D315" t="n">
-        <v>303.833333333333</v>
+        <v>130.083333333333</v>
       </c>
       <c r="E315" t="n">
-        <v>96.3486409144447</v>
+        <v>34.9946965678914</v>
       </c>
       <c r="F315" t="n">
-        <v>307.866666666667</v>
+        <v>141.4</v>
       </c>
       <c r="G315" t="n">
-        <v>74.0953696901757</v>
+        <v>40.4082735516945</v>
       </c>
       <c r="H315" t="n">
-        <v>0.124745464676839</v>
+        <v>0.0451003961569191</v>
       </c>
       <c r="I315" t="n">
-        <v>0.779762835037462</v>
+        <v>0.00394129169920711</v>
       </c>
       <c r="J315" t="n">
-        <v>0.330683602878904</v>
+        <v>0.972959229213408</v>
       </c>
       <c r="K315" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L315" t="n">
-        <v>0.903026936719496</v>
+        <v>0.378900956306171</v>
       </c>
       <c r="M315" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N315" t="n">
-        <v>-0.123081227696442</v>
+        <v>71.5</v>
       </c>
       <c r="O315" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P315" t="n">
-        <v>-0.0476691545099085</v>
+        <v>-0.205555555555556</v>
       </c>
       <c r="Q315" t="n">
-        <v>0.71200951248048</v>
+        <v>0.233395003686736</v>
       </c>
       <c r="R315" t="n">
-        <v>-0.806399771330686</v>
+        <v>-0.574912374060822</v>
       </c>
     </row>
     <row r="316">
@@ -19074,49 +19080,49 @@
         <v>15</v>
       </c>
       <c r="D316" t="n">
-        <v>8.83333333333333</v>
+        <v>303.833333333333</v>
       </c>
       <c r="E316" t="n">
-        <v>9.96204919895622</v>
+        <v>96.3486409144447</v>
       </c>
       <c r="F316" t="n">
-        <v>13.4666666666667</v>
+        <v>307.866666666667</v>
       </c>
       <c r="G316" t="n">
-        <v>9.6870065158487</v>
+        <v>74.0953696901757</v>
       </c>
       <c r="H316" t="n">
-        <v>0.0000680167464342729</v>
+        <v>0.124745464676839</v>
       </c>
       <c r="I316" t="n">
-        <v>0.0047438537691175</v>
+        <v>0.779762835037462</v>
       </c>
       <c r="J316" t="n">
-        <v>0.574346243587542</v>
+        <v>0.330683602878904</v>
       </c>
       <c r="K316" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L316" t="n">
-        <v>0.0290554069002856</v>
+        <v>0.903026936719496</v>
       </c>
       <c r="M316" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N316" t="n">
-        <v>45</v>
+        <v>-0.123081227696442</v>
       </c>
       <c r="O316" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P316" t="n">
-        <v>-0.5</v>
+        <v>-0.0476691545099085</v>
       </c>
       <c r="Q316" t="n">
-        <v>-0.102639980239046</v>
+        <v>0.712009512480479</v>
       </c>
       <c r="R316" t="n">
-        <v>-0.759744116657304</v>
+        <v>-0.806399771330695</v>
       </c>
     </row>
     <row r="317">
@@ -19130,49 +19136,49 @@
         <v>15</v>
       </c>
       <c r="D317" t="n">
-        <v>121.25</v>
+        <v>8.83333333333333</v>
       </c>
       <c r="E317" t="n">
-        <v>28.2589487033432</v>
+        <v>9.96204919895622</v>
       </c>
       <c r="F317" t="n">
-        <v>127.933333333333</v>
+        <v>13.4666666666667</v>
       </c>
       <c r="G317" t="n">
-        <v>40.9973286005436</v>
+        <v>9.6870065158487</v>
       </c>
       <c r="H317" t="n">
-        <v>0.0624145368041019</v>
+        <v>0.0000680167464342729</v>
       </c>
       <c r="I317" t="n">
-        <v>0.00034551206611175</v>
+        <v>0.0047438537691175</v>
       </c>
       <c r="J317" t="n">
-        <v>0.924355985088187</v>
+        <v>0.574346243587542</v>
       </c>
       <c r="K317" t="s">
         <v>23</v>
       </c>
       <c r="L317" t="n">
-        <v>0.71422617437733</v>
+        <v>0.0290554069002856</v>
       </c>
       <c r="M317" t="s">
         <v>24</v>
       </c>
       <c r="N317" t="n">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="O317" t="s">
         <v>25</v>
       </c>
       <c r="P317" t="n">
-        <v>-0.0888888888888889</v>
+        <v>-0.5</v>
       </c>
       <c r="Q317" t="n">
-        <v>0.342727084209488</v>
+        <v>-0.102639980239046</v>
       </c>
       <c r="R317" t="n">
-        <v>-0.489518994843291</v>
+        <v>-0.759744116657304</v>
       </c>
     </row>
     <row r="318">
@@ -19186,49 +19192,49 @@
         <v>15</v>
       </c>
       <c r="D318" t="n">
-        <v>177.75</v>
+        <v>121.25</v>
       </c>
       <c r="E318" t="n">
-        <v>77.0208059257662</v>
+        <v>28.2589487033432</v>
       </c>
       <c r="F318" t="n">
-        <v>174.8</v>
+        <v>127.933333333333</v>
       </c>
       <c r="G318" t="n">
-        <v>54.104660480538</v>
+        <v>40.9973286005436</v>
       </c>
       <c r="H318" t="n">
-        <v>0.0438469781177932</v>
+        <v>0.0624145368041019</v>
       </c>
       <c r="I318" t="n">
-        <v>0.613367883704295</v>
+        <v>0.00034551206611175</v>
       </c>
       <c r="J318" t="n">
-        <v>0.501046479156706</v>
+        <v>0.924355985088187</v>
       </c>
       <c r="K318" t="s">
         <v>23</v>
       </c>
       <c r="L318" t="n">
-        <v>0.807192463249313</v>
+        <v>0.71422617437733</v>
       </c>
       <c r="M318" t="s">
         <v>24</v>
       </c>
       <c r="N318" t="n">
-        <v>84.5</v>
+        <v>82</v>
       </c>
       <c r="O318" t="s">
         <v>25</v>
       </c>
       <c r="P318" t="n">
-        <v>-0.0611111111111111</v>
+        <v>-0.0888888888888889</v>
       </c>
       <c r="Q318" t="n">
-        <v>0.36714222122926</v>
+        <v>0.342727084209488</v>
       </c>
       <c r="R318" t="n">
-        <v>-0.467987839276426</v>
+        <v>-0.489518994843291</v>
       </c>
     </row>
     <row r="319">
@@ -19242,49 +19248,49 @@
         <v>15</v>
       </c>
       <c r="D319" t="n">
-        <v>81.75</v>
+        <v>177.75</v>
       </c>
       <c r="E319" t="n">
-        <v>16.1364916768288</v>
+        <v>77.0208059257662</v>
       </c>
       <c r="F319" t="n">
-        <v>83.2</v>
+        <v>174.8</v>
       </c>
       <c r="G319" t="n">
-        <v>17.9888854574151</v>
+        <v>54.104660480538</v>
       </c>
       <c r="H319" t="n">
-        <v>0.401977670883528</v>
+        <v>0.0438469781177932</v>
       </c>
       <c r="I319" t="n">
-        <v>0.102449493376904</v>
+        <v>0.613367883704295</v>
       </c>
       <c r="J319" t="n">
-        <v>0.764236361769075</v>
+        <v>0.501046479156706</v>
       </c>
       <c r="K319" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L319" t="n">
-        <v>0.829439563806927</v>
+        <v>0.807192463249313</v>
       </c>
       <c r="M319" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N319" t="n">
-        <v>-0.217687536961446</v>
+        <v>84.5</v>
       </c>
       <c r="O319" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P319" t="n">
-        <v>-0.084310020532859</v>
+        <v>-0.0611111111111111</v>
       </c>
       <c r="Q319" t="n">
-        <v>0.675974701122529</v>
+        <v>0.36714222122926</v>
       </c>
       <c r="R319" t="n">
-        <v>-0.842918844279682</v>
+        <v>-0.467987839276426</v>
       </c>
     </row>
     <row r="320">
@@ -19298,49 +19304,49 @@
         <v>15</v>
       </c>
       <c r="D320" t="n">
-        <v>0.437118157079955</v>
+        <v>81.75</v>
       </c>
       <c r="E320" t="n">
-        <v>0.0339038818595121</v>
+        <v>16.1364916768288</v>
       </c>
       <c r="F320" t="n">
-        <v>0.466203790156529</v>
+        <v>83.2</v>
       </c>
       <c r="G320" t="n">
-        <v>0.0450346277100192</v>
+        <v>17.9888854574151</v>
       </c>
       <c r="H320" t="n">
-        <v>0.448957363868525</v>
+        <v>0.401977670883528</v>
       </c>
       <c r="I320" t="n">
-        <v>0.688590424696677</v>
+        <v>0.102449493376904</v>
       </c>
       <c r="J320" t="n">
-        <v>0.176432311794555</v>
+        <v>0.764236361769075</v>
       </c>
       <c r="K320" t="s">
         <v>19</v>
       </c>
       <c r="L320" t="n">
-        <v>0.0756371402426851</v>
+        <v>0.829439563806927</v>
       </c>
       <c r="M320" t="s">
         <v>20</v>
       </c>
       <c r="N320" t="n">
-        <v>-1.85357678004774</v>
+        <v>-0.217687536961446</v>
       </c>
       <c r="O320" t="s">
         <v>21</v>
       </c>
       <c r="P320" t="n">
-        <v>-0.717887200004168</v>
+        <v>-0.084310020532859</v>
       </c>
       <c r="Q320" t="n">
-        <v>0.0732927388247861</v>
+        <v>0.675974701122529</v>
       </c>
       <c r="R320" t="n">
-        <v>-1.49566812964877</v>
+        <v>-0.842918844279682</v>
       </c>
     </row>
     <row r="321">
@@ -19354,49 +19360,49 @@
         <v>15</v>
       </c>
       <c r="D321" t="n">
-        <v>0.230634626518902</v>
+        <v>0.667752783598857</v>
       </c>
       <c r="E321" t="n">
-        <v>0.023971017107651</v>
+        <v>0.0381532488458745</v>
       </c>
       <c r="F321" t="n">
-        <v>0.213687616918244</v>
+        <v>0.679891407074773</v>
       </c>
       <c r="G321" t="n">
-        <v>0.0311523947425314</v>
+        <v>0.0502820811588402</v>
       </c>
       <c r="H321" t="n">
-        <v>0.510656259997499</v>
+        <v>0.5468113654987</v>
       </c>
       <c r="I321" t="n">
-        <v>0.240434379498998</v>
+        <v>0.43206687211358</v>
       </c>
       <c r="J321" t="n">
-        <v>0.51079835781276</v>
+        <v>0.401946240748213</v>
       </c>
       <c r="K321" t="s">
         <v>19</v>
       </c>
       <c r="L321" t="n">
-        <v>0.133556010289022</v>
+        <v>0.495835215609003</v>
       </c>
       <c r="M321" t="s">
         <v>20</v>
       </c>
       <c r="N321" t="n">
-        <v>1.55064063311708</v>
+        <v>-0.691157083204138</v>
       </c>
       <c r="O321" t="s">
         <v>21</v>
       </c>
       <c r="P321" t="n">
-        <v>0.600560534801498</v>
+        <v>-0.267683987286292</v>
       </c>
       <c r="Q321" t="n">
-        <v>1.37179703274756</v>
+        <v>0.497626131943416</v>
       </c>
       <c r="R321" t="n">
-        <v>-0.182096376244484</v>
+        <v>-1.02771707751763</v>
       </c>
     </row>
     <row r="322">
@@ -19410,49 +19416,49 @@
         <v>15</v>
       </c>
       <c r="D322" t="n">
-        <v>984.083333333333</v>
+        <v>0.437118157079955</v>
       </c>
       <c r="E322" t="n">
-        <v>351.194185687357</v>
+        <v>0.0339038818595121</v>
       </c>
       <c r="F322" t="n">
-        <v>1035.66666666667</v>
+        <v>0.466203790156529</v>
       </c>
       <c r="G322" t="n">
-        <v>567.459962925852</v>
+        <v>0.0450346277100192</v>
       </c>
       <c r="H322" t="n">
-        <v>0.82958495233341</v>
+        <v>0.448957363868525</v>
       </c>
       <c r="I322" t="n">
-        <v>0.724502779256515</v>
+        <v>0.688590424696677</v>
       </c>
       <c r="J322" t="n">
-        <v>0.136620527815646</v>
+        <v>0.176432311794556</v>
       </c>
       <c r="K322" t="s">
         <v>19</v>
       </c>
       <c r="L322" t="n">
-        <v>0.7855896020785</v>
+        <v>0.0756371402426851</v>
       </c>
       <c r="M322" t="s">
         <v>20</v>
       </c>
       <c r="N322" t="n">
-        <v>-0.274982382025323</v>
+        <v>-1.85357678004774</v>
       </c>
       <c r="O322" t="s">
         <v>21</v>
       </c>
       <c r="P322" t="n">
-        <v>-0.106500218608452</v>
+        <v>-0.717887200004168</v>
       </c>
       <c r="Q322" t="n">
-        <v>0.654216454984687</v>
+        <v>0.0732927388247859</v>
       </c>
       <c r="R322" t="n">
-        <v>-0.865101080418302</v>
+        <v>-1.49566812964877</v>
       </c>
     </row>
     <row r="323">
@@ -19466,49 +19472,49 @@
         <v>15</v>
       </c>
       <c r="D323" t="n">
-        <v>121.25</v>
+        <v>0.230634626518902</v>
       </c>
       <c r="E323" t="n">
-        <v>35.3428017616549</v>
+        <v>0.023971017107651</v>
       </c>
       <c r="F323" t="n">
-        <v>132.933333333333</v>
+        <v>0.213687616918244</v>
       </c>
       <c r="G323" t="n">
-        <v>38.5976806606427</v>
+        <v>0.0311523947425314</v>
       </c>
       <c r="H323" t="n">
-        <v>0.131227518639953</v>
+        <v>0.510656259997499</v>
       </c>
       <c r="I323" t="n">
-        <v>0.0030805427919696</v>
+        <v>0.240434379498998</v>
       </c>
       <c r="J323" t="n">
-        <v>0.955375685576557</v>
+        <v>0.51079835781276</v>
       </c>
       <c r="K323" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L323" t="n">
-        <v>0.30528553704346</v>
+        <v>0.133556010289022</v>
       </c>
       <c r="M323" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N323" t="n">
-        <v>68.5</v>
+        <v>1.55064063311708</v>
       </c>
       <c r="O323" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P323" t="n">
-        <v>-0.238888888888889</v>
+        <v>0.600560534801498</v>
       </c>
       <c r="Q323" t="n">
-        <v>0.199976437078627</v>
+        <v>1.37179703274756</v>
       </c>
       <c r="R323" t="n">
-        <v>-0.597917019310323</v>
+        <v>-0.182096376244484</v>
       </c>
     </row>
     <row r="324">
@@ -19522,49 +19528,49 @@
         <v>15</v>
       </c>
       <c r="D324" t="n">
-        <v>282.583333333333</v>
+        <v>984.083333333333</v>
       </c>
       <c r="E324" t="n">
-        <v>93.1298783550384</v>
+        <v>351.194185687357</v>
       </c>
       <c r="F324" t="n">
-        <v>291.2</v>
+        <v>1035.66666666667</v>
       </c>
       <c r="G324" t="n">
-        <v>70.8531680912818</v>
+        <v>567.459962925852</v>
       </c>
       <c r="H324" t="n">
-        <v>0.336187724360771</v>
+        <v>0.82958495233341</v>
       </c>
       <c r="I324" t="n">
-        <v>0.797226555070636</v>
+        <v>0.724502779256515</v>
       </c>
       <c r="J324" t="n">
-        <v>0.36769762323922</v>
+        <v>0.136620527815646</v>
       </c>
       <c r="K324" t="s">
         <v>19</v>
       </c>
       <c r="L324" t="n">
-        <v>0.786877584483189</v>
+        <v>0.7855896020785</v>
       </c>
       <c r="M324" t="s">
         <v>20</v>
       </c>
       <c r="N324" t="n">
-        <v>-0.273287039040203</v>
+        <v>-0.274982382025323</v>
       </c>
       <c r="O324" t="s">
         <v>21</v>
       </c>
       <c r="P324" t="n">
-        <v>-0.105843615093704</v>
+        <v>-0.106500218608452</v>
       </c>
       <c r="Q324" t="n">
-        <v>0.654859483458305</v>
+        <v>0.654216454984695</v>
       </c>
       <c r="R324" t="n">
-        <v>-0.864443615632943</v>
+        <v>-0.865101080418301</v>
       </c>
     </row>
     <row r="325">
@@ -19578,49 +19584,49 @@
         <v>15</v>
       </c>
       <c r="D325" t="n">
-        <v>7.91666666666667</v>
+        <v>121.25</v>
       </c>
       <c r="E325" t="n">
-        <v>10.0585407701238</v>
+        <v>35.3428017616549</v>
       </c>
       <c r="F325" t="n">
-        <v>11.4</v>
+        <v>132.933333333333</v>
       </c>
       <c r="G325" t="n">
-        <v>8.50881895447306</v>
+        <v>38.5976806606427</v>
       </c>
       <c r="H325" t="n">
-        <v>0.0000276810782658072</v>
+        <v>0.131227518639953</v>
       </c>
       <c r="I325" t="n">
-        <v>0.0235830988010435</v>
+        <v>0.0030805427919696</v>
       </c>
       <c r="J325" t="n">
-        <v>0.573520061889581</v>
+        <v>0.955375685576558</v>
       </c>
       <c r="K325" t="s">
         <v>23</v>
       </c>
       <c r="L325" t="n">
-        <v>0.0907509777449222</v>
+        <v>0.30528553704346</v>
       </c>
       <c r="M325" t="s">
         <v>24</v>
       </c>
       <c r="N325" t="n">
-        <v>55</v>
+        <v>68.5</v>
       </c>
       <c r="O325" t="s">
         <v>25</v>
       </c>
       <c r="P325" t="n">
-        <v>-0.388888888888889</v>
+        <v>-0.238888888888889</v>
       </c>
       <c r="Q325" t="n">
-        <v>0.0357978529918061</v>
+        <v>0.199976437078627</v>
       </c>
       <c r="R325" t="n">
-        <v>-0.694602019827238</v>
+        <v>-0.597917019310323</v>
       </c>
     </row>
     <row r="326">
@@ -19634,49 +19640,49 @@
         <v>15</v>
       </c>
       <c r="D326" t="n">
-        <v>113.333333333333</v>
+        <v>282.583333333333</v>
       </c>
       <c r="E326" t="n">
-        <v>28.4296047148465</v>
+        <v>93.1298783550384</v>
       </c>
       <c r="F326" t="n">
-        <v>121.533333333333</v>
+        <v>291.2</v>
       </c>
       <c r="G326" t="n">
-        <v>39.2607886294904</v>
+        <v>70.8531680912818</v>
       </c>
       <c r="H326" t="n">
-        <v>0.272650845919477</v>
+        <v>0.336187724360771</v>
       </c>
       <c r="I326" t="n">
-        <v>0.000385489917516186</v>
+        <v>0.797226555070636</v>
       </c>
       <c r="J326" t="n">
-        <v>0.925395245592751</v>
+        <v>0.36769762323922</v>
       </c>
       <c r="K326" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L326" t="n">
-        <v>0.574466657451526</v>
+        <v>0.786877584483189</v>
       </c>
       <c r="M326" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N326" t="n">
-        <v>78</v>
+        <v>-0.273287039040203</v>
       </c>
       <c r="O326" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P326" t="n">
-        <v>-0.133333333333333</v>
+        <v>-0.105843615093704</v>
       </c>
       <c r="Q326" t="n">
-        <v>0.302411245730388</v>
+        <v>0.654859483458305</v>
       </c>
       <c r="R326" t="n">
-        <v>-0.522981834046129</v>
+        <v>-0.864443615632943</v>
       </c>
     </row>
     <row r="327">
@@ -19690,49 +19696,49 @@
         <v>15</v>
       </c>
       <c r="D327" t="n">
-        <v>164.5</v>
+        <v>7.91666666666667</v>
       </c>
       <c r="E327" t="n">
-        <v>71.5929148348177</v>
+        <v>10.0585407701238</v>
       </c>
       <c r="F327" t="n">
-        <v>164.866666666667</v>
+        <v>11.4</v>
       </c>
       <c r="G327" t="n">
-        <v>51.0194174053463</v>
+        <v>8.50881895447306</v>
       </c>
       <c r="H327" t="n">
-        <v>0.0542364418374637</v>
+        <v>0.0000276810782658072</v>
       </c>
       <c r="I327" t="n">
-        <v>0.46700175791309</v>
+        <v>0.0235830988010435</v>
       </c>
       <c r="J327" t="n">
-        <v>0.433828045144733</v>
+        <v>0.573520061889581</v>
       </c>
       <c r="K327" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L327" t="n">
-        <v>0.987727056646598</v>
+        <v>0.0907509777449222</v>
       </c>
       <c r="M327" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N327" t="n">
-        <v>-0.015537052342167</v>
+        <v>55</v>
       </c>
       <c r="O327" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P327" t="n">
-        <v>-0.00601747449703657</v>
+        <v>-0.388888888888889</v>
       </c>
       <c r="Q327" t="n">
-        <v>0.753134995353072</v>
+        <v>0.0357978529918061</v>
       </c>
       <c r="R327" t="n">
-        <v>-0.765050301586317</v>
+        <v>-0.694602019827238</v>
       </c>
     </row>
     <row r="328">
@@ -19746,49 +19752,49 @@
         <v>15</v>
       </c>
       <c r="D328" t="n">
-        <v>76.4166666666667</v>
+        <v>113.333333333333</v>
       </c>
       <c r="E328" t="n">
-        <v>15.9000190584982</v>
+        <v>28.4296047148465</v>
       </c>
       <c r="F328" t="n">
-        <v>78.5333333333333</v>
+        <v>121.533333333333</v>
       </c>
       <c r="G328" t="n">
-        <v>18.126013928947</v>
+        <v>39.2607886294904</v>
       </c>
       <c r="H328" t="n">
-        <v>0.571426696851411</v>
+        <v>0.272650845919477</v>
       </c>
       <c r="I328" t="n">
-        <v>0.0469531666382923</v>
+        <v>0.000385489917516186</v>
       </c>
       <c r="J328" t="n">
-        <v>0.942106493081578</v>
+        <v>0.925395245592751</v>
       </c>
       <c r="K328" t="s">
         <v>23</v>
       </c>
       <c r="L328" t="n">
-        <v>0.695873116259992</v>
+        <v>0.574466657451526</v>
       </c>
       <c r="M328" t="s">
         <v>24</v>
       </c>
       <c r="N328" t="n">
-        <v>81.5</v>
+        <v>78</v>
       </c>
       <c r="O328" t="s">
         <v>25</v>
       </c>
       <c r="P328" t="n">
-        <v>-0.0944444444444445</v>
+        <v>-0.133333333333333</v>
       </c>
       <c r="Q328" t="n">
-        <v>0.337773072645002</v>
+        <v>0.302411245730388</v>
       </c>
       <c r="R328" t="n">
-        <v>-0.49376739085194</v>
+        <v>-0.522981834046129</v>
       </c>
     </row>
     <row r="329">
@@ -19802,49 +19808,49 @@
         <v>15</v>
       </c>
       <c r="D329" t="n">
-        <v>0.667752783598857</v>
+        <v>164.5</v>
       </c>
       <c r="E329" t="n">
-        <v>0.0381532488458745</v>
+        <v>71.5929148348177</v>
       </c>
       <c r="F329" t="n">
-        <v>0.679891407074773</v>
+        <v>164.866666666667</v>
       </c>
       <c r="G329" t="n">
-        <v>0.0502820811588402</v>
+        <v>51.0194174053463</v>
       </c>
       <c r="H329" t="n">
-        <v>0.5468113654987</v>
+        <v>0.0542364418374637</v>
       </c>
       <c r="I329" t="n">
-        <v>0.43206687211358</v>
+        <v>0.46700175791309</v>
       </c>
       <c r="J329" t="n">
-        <v>0.401946240748212</v>
+        <v>0.433828045144733</v>
       </c>
       <c r="K329" t="s">
         <v>19</v>
       </c>
       <c r="L329" t="n">
-        <v>0.495835215609002</v>
+        <v>0.987727056646598</v>
       </c>
       <c r="M329" t="s">
         <v>20</v>
       </c>
       <c r="N329" t="n">
-        <v>-0.691157083204138</v>
+        <v>-0.015537052342167</v>
       </c>
       <c r="O329" t="s">
         <v>21</v>
       </c>
       <c r="P329" t="n">
-        <v>-0.267683987286292</v>
+        <v>-0.00601747449703657</v>
       </c>
       <c r="Q329" t="n">
-        <v>0.497626131943416</v>
+        <v>0.753134995353072</v>
       </c>
       <c r="R329" t="n">
-        <v>-1.02771707751763</v>
+        <v>-0.765050301586317</v>
       </c>
     </row>
     <row r="330">
@@ -19858,49 +19864,49 @@
         <v>15</v>
       </c>
       <c r="D330" t="n">
-        <v>0.435420104446172</v>
+        <v>76.4166666666667</v>
       </c>
       <c r="E330" t="n">
-        <v>0.0372580951073049</v>
+        <v>15.9000190584982</v>
       </c>
       <c r="F330" t="n">
-        <v>0.452160997295257</v>
+        <v>78.5333333333333</v>
       </c>
       <c r="G330" t="n">
-        <v>0.0741690061399505</v>
+        <v>18.126013928947</v>
       </c>
       <c r="H330" t="n">
-        <v>0.706511643747687</v>
+        <v>0.571426696851411</v>
       </c>
       <c r="I330" t="n">
-        <v>0.0213443567110003</v>
+        <v>0.0469531666382923</v>
       </c>
       <c r="J330" t="n">
-        <v>0.182185002917903</v>
+        <v>0.942106493081578</v>
       </c>
       <c r="K330" t="s">
         <v>23</v>
       </c>
       <c r="L330" t="n">
-        <v>0.256245966085783</v>
+        <v>0.695873116259992</v>
       </c>
       <c r="M330" t="s">
         <v>24</v>
       </c>
       <c r="N330" t="n">
-        <v>66</v>
+        <v>81.5</v>
       </c>
       <c r="O330" t="s">
         <v>25</v>
       </c>
       <c r="P330" t="n">
-        <v>-0.266666666666667</v>
+        <v>-0.0944444444444445</v>
       </c>
       <c r="Q330" t="n">
-        <v>0.171325161227883</v>
+        <v>0.337773072645002</v>
       </c>
       <c r="R330" t="n">
-        <v>-0.616646156031539</v>
+        <v>-0.49376739085194</v>
       </c>
     </row>
     <row r="331">
@@ -19914,49 +19920,49 @@
         <v>15</v>
       </c>
       <c r="D331" t="n">
-        <v>0.229168650123229</v>
+        <v>0.667752783598857</v>
       </c>
       <c r="E331" t="n">
-        <v>0.02283439495253</v>
+        <v>0.0381532488458745</v>
       </c>
       <c r="F331" t="n">
-        <v>0.221374862719317</v>
+        <v>0.679891407074773</v>
       </c>
       <c r="G331" t="n">
-        <v>0.0527946876568928</v>
+        <v>0.0502820811588402</v>
       </c>
       <c r="H331" t="n">
-        <v>0.215343028626543</v>
+        <v>0.5468113654987</v>
       </c>
       <c r="I331" t="n">
-        <v>0.00251329520230128</v>
+        <v>0.43206687211358</v>
       </c>
       <c r="J331" t="n">
-        <v>0.313373755156021</v>
+        <v>0.401946240748213</v>
       </c>
       <c r="K331" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L331" t="n">
-        <v>0.136505931313969</v>
+        <v>0.495835215609003</v>
       </c>
       <c r="M331" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N331" t="n">
-        <v>121</v>
+        <v>-0.691157083204138</v>
       </c>
       <c r="O331" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P331" t="n">
-        <v>0.344444444444444</v>
+        <v>-0.267683987286292</v>
       </c>
       <c r="Q331" t="n">
-        <v>0.667061494394293</v>
+        <v>0.497626131943416</v>
       </c>
       <c r="R331" t="n">
-        <v>-0.0869567081815126</v>
+        <v>-1.02771707751763</v>
       </c>
     </row>
     <row r="332">
@@ -19970,49 +19976,49 @@
         <v>15</v>
       </c>
       <c r="D332" t="n">
-        <v>0.385497274439691</v>
+        <v>0.435420104446172</v>
       </c>
       <c r="E332" t="n">
-        <v>0.0251428805790496</v>
+        <v>0.0372580951073049</v>
       </c>
       <c r="F332" t="n">
-        <v>0.403074746846958</v>
+        <v>0.452160997295257</v>
       </c>
       <c r="G332" t="n">
-        <v>0.0333659873771965</v>
+        <v>0.0741690061399505</v>
       </c>
       <c r="H332" t="n">
-        <v>0.564880575652716</v>
+        <v>0.706511643747687</v>
       </c>
       <c r="I332" t="n">
-        <v>0.0590772828621577</v>
+        <v>0.0213443567110003</v>
       </c>
       <c r="J332" t="n">
-        <v>0.15008892333119</v>
+        <v>0.182185002917903</v>
       </c>
       <c r="K332" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L332" t="n">
-        <v>0.143202211643338</v>
+        <v>0.256245966085783</v>
       </c>
       <c r="M332" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N332" t="n">
-        <v>-1.51148982007183</v>
+        <v>66</v>
       </c>
       <c r="O332" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P332" t="n">
-        <v>-0.585397490110023</v>
+        <v>-0.266666666666667</v>
       </c>
       <c r="Q332" t="n">
-        <v>0.196247381449751</v>
+        <v>0.171325161227883</v>
       </c>
       <c r="R332" t="n">
-        <v>-1.35588534634974</v>
+        <v>-0.616646156031539</v>
       </c>
     </row>
     <row r="333">
@@ -20026,49 +20032,49 @@
         <v>15</v>
       </c>
       <c r="D333" t="n">
-        <v>0.614502725560308</v>
+        <v>0.229168650123229</v>
       </c>
       <c r="E333" t="n">
-        <v>0.0251428805790496</v>
+        <v>0.02283439495253</v>
       </c>
       <c r="F333" t="n">
-        <v>0.596925253153042</v>
+        <v>0.221374862719317</v>
       </c>
       <c r="G333" t="n">
-        <v>0.0333659873771965</v>
+        <v>0.0527946876568928</v>
       </c>
       <c r="H333" t="n">
-        <v>0.564880575652717</v>
+        <v>0.215343028626543</v>
       </c>
       <c r="I333" t="n">
-        <v>0.0590772828621575</v>
+        <v>0.00251329520230128</v>
       </c>
       <c r="J333" t="n">
-        <v>0.15008892333119</v>
+        <v>0.313373755156021</v>
       </c>
       <c r="K333" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L333" t="n">
-        <v>0.143202211643338</v>
+        <v>0.136505931313969</v>
       </c>
       <c r="M333" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N333" t="n">
-        <v>1.51148982007183</v>
+        <v>121</v>
       </c>
       <c r="O333" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P333" t="n">
-        <v>0.585397490110024</v>
+        <v>0.344444444444444</v>
       </c>
       <c r="Q333" t="n">
-        <v>1.35588536246032</v>
+        <v>0.667061494394293</v>
       </c>
       <c r="R333" t="n">
-        <v>-0.196247289505547</v>
+        <v>-0.0869567081815126</v>
       </c>
     </row>
     <row r="334">
@@ -20082,49 +20088,49 @@
         <v>15</v>
       </c>
       <c r="D334" t="n">
-        <v>0.383857240865437</v>
+        <v>0.385497274439691</v>
       </c>
       <c r="E334" t="n">
-        <v>0.0284336210906297</v>
+        <v>0.0251428805790496</v>
       </c>
       <c r="F334" t="n">
-        <v>0.394464463651272</v>
+        <v>0.403074746846958</v>
       </c>
       <c r="G334" t="n">
-        <v>0.0468176035673344</v>
+        <v>0.0333659873771965</v>
       </c>
       <c r="H334" t="n">
-        <v>0.206877460934725</v>
+        <v>0.564880575652716</v>
       </c>
       <c r="I334" t="n">
-        <v>0.110060250899979</v>
+        <v>0.0590772828621577</v>
       </c>
       <c r="J334" t="n">
-        <v>0.177064982502262</v>
+        <v>0.15008892333119</v>
       </c>
       <c r="K334" t="s">
         <v>19</v>
       </c>
       <c r="L334" t="n">
-        <v>0.497589348152797</v>
+        <v>0.143202211643338</v>
       </c>
       <c r="M334" t="s">
         <v>20</v>
       </c>
       <c r="N334" t="n">
-        <v>-0.688319867145633</v>
+        <v>-1.51148982007183</v>
       </c>
       <c r="O334" t="s">
         <v>21</v>
       </c>
       <c r="P334" t="n">
-        <v>-0.266585138231874</v>
+        <v>-0.585397490110023</v>
       </c>
       <c r="Q334" t="n">
-        <v>0.498685023705098</v>
+        <v>0.196247381449748</v>
       </c>
       <c r="R334" t="n">
-        <v>-1.0265996692539</v>
+        <v>-1.35588534634974</v>
       </c>
     </row>
     <row r="335">
@@ -20138,48 +20144,160 @@
         <v>15</v>
       </c>
       <c r="D335" t="n">
-        <v>0.616142759134563</v>
+        <v>0.614502725560308</v>
       </c>
       <c r="E335" t="n">
-        <v>0.0284336210906296</v>
+        <v>0.0251428805790496</v>
       </c>
       <c r="F335" t="n">
-        <v>0.605535536348728</v>
+        <v>0.596925253153042</v>
       </c>
       <c r="G335" t="n">
-        <v>0.0468176035673344</v>
+        <v>0.0333659873771965</v>
       </c>
       <c r="H335" t="n">
-        <v>0.206877460934727</v>
+        <v>0.564880575652717</v>
       </c>
       <c r="I335" t="n">
-        <v>0.110060250899981</v>
+        <v>0.0590772828621575</v>
       </c>
       <c r="J335" t="n">
-        <v>0.177064982502261</v>
+        <v>0.15008892333119</v>
       </c>
       <c r="K335" t="s">
         <v>19</v>
       </c>
       <c r="L335" t="n">
-        <v>0.497589348152799</v>
+        <v>0.143202211643338</v>
       </c>
       <c r="M335" t="s">
         <v>20</v>
       </c>
       <c r="N335" t="n">
-        <v>0.68831986714563</v>
+        <v>1.51148982007183</v>
       </c>
       <c r="O335" t="s">
         <v>21</v>
       </c>
       <c r="P335" t="n">
+        <v>0.585397490110024</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>1.35588536246032</v>
+      </c>
+      <c r="R335" t="n">
+        <v>-0.196247289505546</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>360</v>
+      </c>
+      <c r="B336" t="n">
+        <v>12</v>
+      </c>
+      <c r="C336" t="n">
+        <v>15</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0.383857240865437</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0.0284336210906297</v>
+      </c>
+      <c r="F336" t="n">
+        <v>0.394464463651272</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.0468176035673344</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0.206877460934725</v>
+      </c>
+      <c r="I336" t="n">
+        <v>0.110060250899979</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.177064982502262</v>
+      </c>
+      <c r="K336" t="s">
+        <v>19</v>
+      </c>
+      <c r="L336" t="n">
+        <v>0.497589348152797</v>
+      </c>
+      <c r="M336" t="s">
+        <v>20</v>
+      </c>
+      <c r="N336" t="n">
+        <v>-0.688319867145633</v>
+      </c>
+      <c r="O336" t="s">
+        <v>21</v>
+      </c>
+      <c r="P336" t="n">
+        <v>-0.266585138231874</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>0.498685023705102</v>
+      </c>
+      <c r="R336" t="n">
+        <v>-1.0265996692539</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>361</v>
+      </c>
+      <c r="B337" t="n">
+        <v>12</v>
+      </c>
+      <c r="C337" t="n">
+        <v>15</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0.616142759134563</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0.0284336210906296</v>
+      </c>
+      <c r="F337" t="n">
+        <v>0.605535536348728</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.0468176035673344</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0.206877460934727</v>
+      </c>
+      <c r="I337" t="n">
+        <v>0.110060250899981</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.177064982502261</v>
+      </c>
+      <c r="K337" t="s">
+        <v>19</v>
+      </c>
+      <c r="L337" t="n">
+        <v>0.497589348152799</v>
+      </c>
+      <c r="M337" t="s">
+        <v>20</v>
+      </c>
+      <c r="N337" t="n">
+        <v>0.68831986714563</v>
+      </c>
+      <c r="O337" t="s">
+        <v>21</v>
+      </c>
+      <c r="P337" t="n">
         <v>0.266585138231872</v>
       </c>
-      <c r="Q335" t="n">
+      <c r="Q337" t="n">
         <v>1.02659954141681</v>
       </c>
-      <c r="R335" t="n">
+      <c r="R337" t="n">
         <v>-0.49868507725447</v>
       </c>
     </row>
